--- a/tailieu/10.ProjectSprintBacklog.xlsx
+++ b/tailieu/10.ProjectSprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tailieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XDWQLPTH1792\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FD332C-6D1B-47C1-BFC7-9B1DBAD74273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA53093-EF56-43F1-BB7D-374C738EFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1108,35 +1108,12 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1145,18 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,27 +1141,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1209,11 +1188,32 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4925,7 +4925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B60" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B16" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
@@ -4949,10 +4949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -4962,10 +4962,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -4975,10 +4975,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="36">
         <v>45742</v>
       </c>
@@ -4988,22 +4988,22 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="36">
         <v>45757</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="B6" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
@@ -5100,10 +5100,10 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
         <v>28</v>
@@ -5120,14 +5120,14 @@
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -5187,18 +5187,18 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -5258,16 +5258,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -5327,16 +5327,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -5396,18 +5396,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -5467,16 +5467,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -5536,16 +5536,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="42" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -5605,16 +5605,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -5674,16 +5674,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="42" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -5743,16 +5743,16 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="42" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -5812,12 +5812,12 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -5841,18 +5841,18 @@
       <c r="Y25" s="20"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -5912,16 +5912,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -5981,16 +5981,16 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44" t="s">
+      <c r="D28" s="52"/>
+      <c r="E28" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -6050,16 +6050,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -6119,16 +6119,16 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="20">
         <v>4</v>
       </c>
@@ -6188,16 +6188,16 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="42" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44" t="s">
+      <c r="D31" s="52"/>
+      <c r="E31" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="20">
         <v>4</v>
       </c>
@@ -6257,12 +6257,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -6285,18 +6285,18 @@
       <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44" t="s">
+      <c r="D33" s="52"/>
+      <c r="E33" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="20">
         <v>4</v>
       </c>
@@ -6356,16 +6356,16 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="42" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -6425,16 +6425,16 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="42" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -6494,16 +6494,16 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -6563,16 +6563,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44" t="s">
+      <c r="D37" s="52"/>
+      <c r="E37" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="20">
         <v>3</v>
       </c>
@@ -6632,12 +6632,12 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -6660,16 +6660,16 @@
       <c r="Y38" s="20"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="42" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="20">
         <v>5</v>
       </c>
@@ -6729,12 +6729,12 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -6757,16 +6757,16 @@
       <c r="Y40" s="20"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="42" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44" t="s">
+      <c r="D41" s="52"/>
+      <c r="E41" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="20">
         <v>2</v>
       </c>
@@ -6826,16 +6826,16 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="42" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="20">
         <v>2</v>
       </c>
@@ -6895,16 +6895,16 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="42" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="52"/>
+      <c r="E43" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="20">
         <v>4</v>
       </c>
@@ -6964,16 +6964,16 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44" t="s">
+      <c r="D44" s="52"/>
+      <c r="E44" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -7033,16 +7033,16 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="42" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44" t="s">
+      <c r="D45" s="52"/>
+      <c r="E45" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="20">
         <v>1</v>
       </c>
@@ -7102,12 +7102,12 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -7130,18 +7130,18 @@
       <c r="Y46" s="37"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="52"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="20">
         <v>3</v>
       </c>
@@ -7201,16 +7201,16 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44" t="s">
+      <c r="D48" s="52"/>
+      <c r="E48" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="20">
         <v>3</v>
       </c>
@@ -7270,16 +7270,16 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44" t="s">
+      <c r="D49" s="52"/>
+      <c r="E49" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="20">
         <v>3</v>
       </c>
@@ -7339,16 +7339,16 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="20">
         <v>3</v>
       </c>
@@ -7408,16 +7408,16 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="42" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44" t="s">
+      <c r="D51" s="52"/>
+      <c r="E51" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -7477,12 +7477,12 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A52" s="52"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -7505,18 +7505,18 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A53" s="52"/>
-      <c r="B53" s="51" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44" t="s">
+      <c r="D53" s="52"/>
+      <c r="E53" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="20">
         <v>0</v>
       </c>
@@ -7576,12 +7576,12 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -7604,16 +7604,16 @@
       <c r="Y54" s="20"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="42" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="20">
         <v>0</v>
       </c>
@@ -7673,12 +7673,12 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -7701,16 +7701,16 @@
       <c r="Y56" s="20"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="42" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44" t="s">
+      <c r="D57" s="52"/>
+      <c r="E57" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="20">
         <v>0</v>
       </c>
@@ -7770,12 +7770,12 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -7798,16 +7798,16 @@
       <c r="Y58" s="20"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="42" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="44" t="s">
+      <c r="D59" s="52"/>
+      <c r="E59" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="20">
         <v>0</v>
       </c>
@@ -7867,12 +7867,12 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -7895,16 +7895,16 @@
       <c r="Y60" s="20"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="49" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="44" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="20">
         <v>0</v>
       </c>
@@ -7964,12 +7964,12 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="45"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="41"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -7992,18 +7992,18 @@
       <c r="Y62" s="20"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A63" s="52"/>
-      <c r="B63" s="51" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="44" t="s">
+      <c r="D63" s="52"/>
+      <c r="E63" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="45"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="20">
         <v>0</v>
       </c>
@@ -8063,12 +8063,12 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="45"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -8091,16 +8091,16 @@
       <c r="Y64" s="20"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="42" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="44" t="s">
+      <c r="D65" s="52"/>
+      <c r="E65" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="20">
         <v>0</v>
       </c>
@@ -8160,12 +8160,12 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="45"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="41"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
@@ -8188,16 +8188,16 @@
       <c r="Y66" s="20"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="42" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="44" t="s">
+      <c r="D67" s="52"/>
+      <c r="E67" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="45"/>
+      <c r="F67" s="41"/>
       <c r="G67" s="20">
         <v>0</v>
       </c>
@@ -8257,12 +8257,12 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="45"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
@@ -8285,16 +8285,16 @@
       <c r="Y68" s="20"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="42" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44" t="s">
+      <c r="D69" s="52"/>
+      <c r="E69" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="45"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="20">
         <v>0</v>
       </c>
@@ -8354,12 +8354,12 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="45"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -8382,16 +8382,16 @@
       <c r="Y70" s="20"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="42" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44" t="s">
+      <c r="D71" s="52"/>
+      <c r="E71" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="45"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="20">
         <v>0</v>
       </c>
@@ -8451,12 +8451,12 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A72" s="52"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="45"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="41"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -8479,18 +8479,18 @@
       <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A73" s="52"/>
-      <c r="B73" s="51" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="54" t="s">
+      <c r="D73" s="52"/>
+      <c r="E73" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="55"/>
+      <c r="F73" s="56"/>
       <c r="G73" s="20">
         <v>5</v>
       </c>
@@ -8550,16 +8550,16 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A74" s="52"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="42" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="54" t="s">
+      <c r="D74" s="52"/>
+      <c r="E74" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="55"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="20">
         <v>5</v>
       </c>
@@ -8619,21 +8619,21 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A75" s="52"/>
-      <c r="B75" s="58" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="59"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="46" t="s">
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="47"/>
-      <c r="G75" s="46">
+      <c r="F75" s="54"/>
+      <c r="G75" s="53">
         <f>SUM(G16:G74)</f>
         <v>125</v>
       </c>
-      <c r="H75" s="47"/>
+      <c r="H75" s="54"/>
       <c r="I75" s="20">
         <f t="shared" ref="I75:X75" si="0">SUM(I16:I74)</f>
         <v>158</v>
@@ -8704,19 +8704,19 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A76" s="53"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="46" t="s">
+      <c r="A76" s="44"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="47"/>
-      <c r="G76" s="46">
+      <c r="F76" s="54"/>
+      <c r="G76" s="53">
         <f>SUM(H16:H74)</f>
         <v>158</v>
       </c>
-      <c r="H76" s="47"/>
+      <c r="H76" s="54"/>
       <c r="I76" s="20">
         <f>SUM(I16:I74)</f>
         <v>158</v>
@@ -8788,49 +8788,77 @@
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B75:D76"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="B33:B46"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E25:F25"/>
@@ -8855,78 +8883,50 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B75:D76"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="B33:B46"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -8938,7 +8938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB87"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
@@ -8957,10 +8957,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -8971,10 +8971,10 @@
       </c>
     </row>
     <row r="2" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
@@ -8985,10 +8985,10 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="36">
         <v>45758</v>
       </c>
@@ -8999,10 +8999,10 @@
       </c>
     </row>
     <row r="4" spans="1:54" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="72"/>
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65"/>
       <c r="C4" s="36">
         <v>45773</v>
       </c>
@@ -9024,12 +9024,12 @@
     </row>
     <row r="6" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -9133,10 +9133,10 @@
     </row>
     <row r="13" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
         <v>28</v>
@@ -9153,14 +9153,14 @@
       <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="70"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -9249,18 +9249,18 @@
       <c r="BB15" s="2"/>
     </row>
     <row r="16" spans="1:54" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="64" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -9320,16 +9320,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="67"/>
-      <c r="B17" s="65" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="64" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="64"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -9389,16 +9389,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="67"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="64" t="s">
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -9458,18 +9458,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="64"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -9529,16 +9529,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="65" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="64" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -9598,16 +9598,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="65" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="64" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -9667,16 +9667,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="65" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="64" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -9736,16 +9736,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="65" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="64" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="64"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="20">
         <v>4</v>
       </c>
@@ -9805,12 +9805,12 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -9833,18 +9833,18 @@
       <c r="Y24" s="20"/>
     </row>
     <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="67"/>
-      <c r="B25" s="67" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="70"/>
+      <c r="E25" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="20">
         <v>4</v>
       </c>
@@ -9904,16 +9904,16 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="65" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="64" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="64"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -9973,16 +9973,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="65" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="64" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="64"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -10042,16 +10042,16 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="67"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="65" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="64" t="s">
+      <c r="D28" s="70"/>
+      <c r="E28" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -10111,16 +10111,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="65" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="64" t="s">
+      <c r="D29" s="70"/>
+      <c r="E29" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="64"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -10180,12 +10180,12 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="67"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -10208,18 +10208,18 @@
       <c r="Y30" s="20"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67" t="s">
+      <c r="A31" s="68"/>
+      <c r="B31" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="65"/>
-      <c r="E31" s="64" t="s">
+      <c r="D31" s="70"/>
+      <c r="E31" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="20">
         <v>4</v>
       </c>
@@ -10279,16 +10279,16 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="65" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="64" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="71"/>
       <c r="G32" s="20">
         <v>4</v>
       </c>
@@ -10348,16 +10348,16 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="65" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="64" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="71"/>
       <c r="G33" s="20">
         <v>4</v>
       </c>
@@ -10417,16 +10417,16 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="65" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="65"/>
-      <c r="E34" s="64" t="s">
+      <c r="D34" s="70"/>
+      <c r="E34" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="64"/>
+      <c r="F34" s="71"/>
       <c r="G34" s="20">
         <v>5</v>
       </c>
@@ -10486,12 +10486,12 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -10514,16 +10514,16 @@
       <c r="Y35" s="20"/>
     </row>
     <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="65" t="s">
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="64" t="s">
+      <c r="D36" s="70"/>
+      <c r="E36" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -10583,16 +10583,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="65" t="s">
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="70" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="64" t="s">
+      <c r="D37" s="70"/>
+      <c r="E37" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="64"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="20">
         <v>4</v>
       </c>
@@ -10652,16 +10652,16 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="67"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="65" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="64" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="64"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="20">
         <v>6</v>
       </c>
@@ -10721,16 +10721,16 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="65" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="70"/>
+      <c r="E39" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="64"/>
+      <c r="F39" s="71"/>
       <c r="G39" s="20">
         <v>6</v>
       </c>
@@ -10790,16 +10790,16 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="65" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="64" t="s">
+      <c r="D40" s="70"/>
+      <c r="E40" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="64"/>
+      <c r="F40" s="71"/>
       <c r="G40" s="20">
         <v>2</v>
       </c>
@@ -10859,18 +10859,18 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67" t="s">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="64" t="s">
+      <c r="D41" s="70"/>
+      <c r="E41" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="64"/>
+      <c r="F41" s="71"/>
       <c r="G41" s="20">
         <v>4</v>
       </c>
@@ -10930,12 +10930,12 @@
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="45"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -10958,16 +10958,16 @@
       <c r="Y42" s="20"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="67"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="65" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="71"/>
       <c r="G43" s="20">
         <v>6</v>
       </c>
@@ -11027,16 +11027,16 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="49" t="s">
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="64" t="s">
+      <c r="D44" s="63"/>
+      <c r="E44" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="71"/>
       <c r="G44" s="20">
         <v>6</v>
       </c>
@@ -11096,12 +11096,12 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -11124,16 +11124,16 @@
       <c r="Y45" s="20"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="67"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="65" t="s">
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="64" t="s">
+      <c r="D46" s="70"/>
+      <c r="E46" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="64"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="20">
         <v>8</v>
       </c>
@@ -11193,18 +11193,18 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="67"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="68"/>
+      <c r="B47" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="65" t="s">
+      <c r="C47" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="64" t="s">
+      <c r="D47" s="70"/>
+      <c r="E47" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="64"/>
+      <c r="F47" s="71"/>
       <c r="G47" s="20">
         <v>0</v>
       </c>
@@ -11264,12 +11264,12 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="67"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="45"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -11292,16 +11292,16 @@
       <c r="Y48" s="20"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="65" t="s">
+      <c r="A49" s="68"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="64" t="s">
+      <c r="D49" s="70"/>
+      <c r="E49" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="64"/>
+      <c r="F49" s="71"/>
       <c r="G49" s="20">
         <v>0</v>
       </c>
@@ -11361,12 +11361,12 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="67"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="45"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -11389,16 +11389,16 @@
       <c r="Y50" s="20"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="67"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="65" t="s">
+      <c r="A51" s="68"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="64" t="s">
+      <c r="D51" s="70"/>
+      <c r="E51" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="64"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="20">
         <v>0</v>
       </c>
@@ -11458,12 +11458,12 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="67"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="45"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -11486,16 +11486,16 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="67"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="65" t="s">
+      <c r="A53" s="68"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="64" t="s">
+      <c r="D53" s="70"/>
+      <c r="E53" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="64"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="20">
         <v>0</v>
       </c>
@@ -11555,12 +11555,12 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="67"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="45"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -11583,18 +11583,18 @@
       <c r="Y54" s="20"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="65" t="s">
+      <c r="C55" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="65"/>
-      <c r="E55" s="64" t="s">
+      <c r="D55" s="70"/>
+      <c r="E55" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="64"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="20">
         <v>0</v>
       </c>
@@ -11654,12 +11654,12 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="67"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="45"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -11682,16 +11682,16 @@
       <c r="Y56" s="20"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="65" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="65"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="70"/>
+      <c r="E57" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="64"/>
+      <c r="F57" s="71"/>
       <c r="G57" s="20">
         <v>0</v>
       </c>
@@ -11751,12 +11751,12 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="67"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -11779,16 +11779,16 @@
       <c r="Y58" s="20"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="65" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="65"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="70"/>
+      <c r="E59" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="64"/>
+      <c r="F59" s="71"/>
       <c r="G59" s="20">
         <v>0</v>
       </c>
@@ -11848,12 +11848,12 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="45"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -11876,16 +11876,16 @@
       <c r="Y60" s="20"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="67"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="65" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="65"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="70"/>
+      <c r="E61" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="64"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="20">
         <v>0</v>
       </c>
@@ -11945,12 +11945,12 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -11973,18 +11973,18 @@
       <c r="Y62" s="20"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="67"/>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C63" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="65"/>
-      <c r="E63" s="64" t="s">
+      <c r="D63" s="70"/>
+      <c r="E63" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="64"/>
+      <c r="F63" s="71"/>
       <c r="G63" s="20">
         <v>5</v>
       </c>
@@ -12044,16 +12044,16 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="67"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="65" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="64" t="s">
+      <c r="D64" s="70"/>
+      <c r="E64" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="64"/>
+      <c r="F64" s="71"/>
       <c r="G64" s="20">
         <v>5</v>
       </c>
@@ -12113,21 +12113,21 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="67"/>
-      <c r="B65" s="76" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="75" t="s">
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="64">
+      <c r="F65" s="69"/>
+      <c r="G65" s="71">
         <f>SUM(G16:G64)</f>
         <v>125</v>
       </c>
-      <c r="H65" s="64"/>
+      <c r="H65" s="71"/>
       <c r="I65" s="20">
         <f t="shared" ref="I65:N65" si="0">SUM(I16:I64)</f>
         <v>152</v>
@@ -12198,19 +12198,19 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="75" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="75"/>
-      <c r="G66" s="64">
+      <c r="F66" s="69"/>
+      <c r="G66" s="71">
         <f>SUM(H16:H64)</f>
         <v>152</v>
       </c>
-      <c r="H66" s="64"/>
+      <c r="H66" s="71"/>
       <c r="I66" s="20">
         <f>SUM(I16:I64)</f>
         <v>152</v>
@@ -12281,22 +12281,96 @@
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="120">
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B47:B54"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -12321,91 +12395,17 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12417,7 +12417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView topLeftCell="C65" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y72" sqref="Y72"/>
     </sheetView>
   </sheetViews>
@@ -12444,10 +12444,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="57"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -12457,10 +12457,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="57"/>
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
@@ -12470,10 +12470,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="36">
         <v>45774</v>
       </c>
@@ -12483,10 +12483,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="36">
         <v>45793</v>
       </c>
@@ -12502,11 +12502,11 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="77"/>
     </row>
     <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -12604,10 +12604,10 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
         <v>28</v>
@@ -12624,14 +12624,14 @@
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -12703,18 +12703,18 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -12786,16 +12786,16 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -12867,16 +12867,16 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -12948,18 +12948,18 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44" t="s">
+      <c r="D19" s="52"/>
+      <c r="E19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -13031,16 +13031,16 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="42" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44" t="s">
+      <c r="D20" s="52"/>
+      <c r="E20" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -13112,16 +13112,16 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="42" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -13193,16 +13193,16 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -13274,16 +13274,16 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="44" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -13355,16 +13355,16 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="42" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -13436,12 +13436,12 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -13468,18 +13468,18 @@
       <c r="AC25" s="20"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
-      <c r="B26" s="51" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -13551,16 +13551,16 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="42" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -13632,16 +13632,16 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="42" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44" t="s">
+      <c r="D28" s="52"/>
+      <c r="E28" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -13713,16 +13713,16 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="42" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -13794,16 +13794,16 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="42" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44" t="s">
+      <c r="D30" s="52"/>
+      <c r="E30" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="20">
         <v>5</v>
       </c>
@@ -13875,12 +13875,12 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -13907,16 +13907,16 @@
       <c r="AC31" s="20"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="42" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44" t="s">
+      <c r="D32" s="52"/>
+      <c r="E32" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="20">
         <v>4</v>
       </c>
@@ -13988,12 +13988,12 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="52"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="45"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -14020,18 +14020,18 @@
       <c r="AC33" s="20"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="52"/>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44" t="s">
+      <c r="D34" s="52"/>
+      <c r="E34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -14103,16 +14103,16 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="42" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44" t="s">
+      <c r="D35" s="52"/>
+      <c r="E35" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -14184,16 +14184,16 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="51" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44" t="s">
+      <c r="D36" s="52"/>
+      <c r="E36" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -14265,16 +14265,16 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="42" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44" t="s">
+      <c r="D37" s="52"/>
+      <c r="E37" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="20">
         <v>4</v>
       </c>
@@ -14346,16 +14346,16 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="42" t="s">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44" t="s">
+      <c r="D38" s="52"/>
+      <c r="E38" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="20">
         <v>4</v>
       </c>
@@ -14427,16 +14427,16 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="42" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44" t="s">
+      <c r="D39" s="52"/>
+      <c r="E39" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="41"/>
       <c r="G39" s="20">
         <v>6</v>
       </c>
@@ -14508,16 +14508,16 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="42" t="s">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44" t="s">
+      <c r="D40" s="52"/>
+      <c r="E40" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="20">
         <v>4</v>
       </c>
@@ -14589,12 +14589,12 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -14621,16 +14621,16 @@
       <c r="AC41" s="20"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="42" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44" t="s">
+      <c r="D42" s="52"/>
+      <c r="E42" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="20">
         <v>4</v>
       </c>
@@ -14702,16 +14702,16 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="42" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="52"/>
+      <c r="E43" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="41"/>
       <c r="G43" s="20">
         <v>4</v>
       </c>
@@ -14783,16 +14783,16 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="42" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44" t="s">
+      <c r="D44" s="52"/>
+      <c r="E44" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -14864,12 +14864,12 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="45"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -14896,16 +14896,16 @@
       <c r="AC45" s="20"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="42" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44" t="s">
+      <c r="D46" s="52"/>
+      <c r="E46" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="20">
         <v>2</v>
       </c>
@@ -14977,18 +14977,18 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A47" s="52"/>
-      <c r="B47" s="51" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="44" t="s">
+      <c r="D47" s="52"/>
+      <c r="E47" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="41"/>
       <c r="G47" s="20">
         <v>4</v>
       </c>
@@ -15060,16 +15060,16 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44" t="s">
+      <c r="D48" s="52"/>
+      <c r="E48" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="20">
         <v>8</v>
       </c>
@@ -15141,16 +15141,16 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="44" t="s">
+      <c r="D49" s="52"/>
+      <c r="E49" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="20">
         <v>4</v>
       </c>
@@ -15222,16 +15222,16 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="44" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="20">
         <v>8</v>
       </c>
@@ -15303,16 +15303,16 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="42" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44" t="s">
+      <c r="D51" s="52"/>
+      <c r="E51" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="41"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -15384,18 +15384,18 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A52" s="52"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="D52" s="43"/>
-      <c r="E52" s="44" t="s">
+      <c r="D52" s="52"/>
+      <c r="E52" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="20">
         <v>0</v>
       </c>
@@ -15467,12 +15467,12 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="45"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -15499,16 +15499,16 @@
       <c r="AC53" s="20"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="42" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="43"/>
-      <c r="E54" s="44" t="s">
+      <c r="D54" s="52"/>
+      <c r="E54" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="41"/>
       <c r="G54" s="20">
         <v>1</v>
       </c>
@@ -15580,16 +15580,16 @@
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="42" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="44" t="s">
+      <c r="D55" s="52"/>
+      <c r="E55" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="20">
         <v>2</v>
       </c>
@@ -15661,16 +15661,16 @@
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="42" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44" t="s">
+      <c r="D56" s="52"/>
+      <c r="E56" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="41"/>
       <c r="G56" s="20">
         <v>4</v>
       </c>
@@ -15742,16 +15742,16 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="42" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="44" t="s">
+      <c r="D57" s="52"/>
+      <c r="E57" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="41"/>
       <c r="G57" s="20">
         <v>2</v>
       </c>
@@ -15823,12 +15823,12 @@
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -15856,18 +15856,18 @@
       <c r="AC58" s="20"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A59" s="52"/>
-      <c r="B59" s="51" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="44" t="s">
+      <c r="D59" s="52"/>
+      <c r="E59" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="20">
         <v>2</v>
       </c>
@@ -15939,16 +15939,16 @@
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="42" t="s">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="44" t="s">
+      <c r="D60" s="52"/>
+      <c r="E60" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="45"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="20">
         <v>2</v>
       </c>
@@ -16020,16 +16020,16 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="42" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44" t="s">
+      <c r="D61" s="52"/>
+      <c r="E61" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="41"/>
       <c r="G61" s="20">
         <v>4</v>
       </c>
@@ -16101,16 +16101,16 @@
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="42" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44" t="s">
+      <c r="D62" s="52"/>
+      <c r="E62" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="41"/>
       <c r="G62" s="20">
         <v>8</v>
       </c>
@@ -16182,16 +16182,16 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="42" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="44" t="s">
+      <c r="D63" s="52"/>
+      <c r="E63" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F63" s="45"/>
+      <c r="F63" s="41"/>
       <c r="G63" s="20">
         <v>4</v>
       </c>
@@ -16263,18 +16263,18 @@
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A64" s="52"/>
-      <c r="B64" s="51" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="45"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="20">
         <v>5</v>
       </c>
@@ -16346,16 +16346,16 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="52"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="42" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="44" t="s">
+      <c r="D65" s="52"/>
+      <c r="E65" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="20">
         <v>5</v>
       </c>
@@ -16427,21 +16427,21 @@
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A66" s="52"/>
-      <c r="B66" s="58" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="46" t="s">
+      <c r="C66" s="46"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="47"/>
-      <c r="G66" s="44">
+      <c r="F66" s="54"/>
+      <c r="G66" s="40">
         <f>SUM(G16:G65)</f>
         <v>174</v>
       </c>
-      <c r="H66" s="45"/>
+      <c r="H66" s="41"/>
       <c r="I66" s="20">
         <f>SUM(I16:I65)</f>
         <v>176</v>
@@ -16528,19 +16528,19 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A67" s="53"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="46" t="s">
+      <c r="A67" s="44"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="47"/>
-      <c r="G67" s="44">
+      <c r="F67" s="54"/>
+      <c r="G67" s="40">
         <f>SUM(H16:H65)</f>
         <v>176</v>
       </c>
-      <c r="H67" s="45"/>
+      <c r="H67" s="41"/>
       <c r="I67" s="20">
         <f>SUM(I16:I65)</f>
         <v>176</v>
@@ -16628,6 +16628,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -16652,103 +16749,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:A67"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B52:B58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B66:D67"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tailieu/10.ProjectSprintBacklog.xlsx
+++ b/tailieu/10.ProjectSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XDWQLPTH1792\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA53093-EF56-43F1-BB7D-374C738EFC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17442C3-F991-409F-BCAC-B0656CB326CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -1035,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1108,12 +1108,6 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1122,6 +1116,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,6 +1242,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1554,7 +1555,7 @@
                   <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>118</c:v>
@@ -1566,31 +1567,31 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1831,6 +1832,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1838,13 +1869,178 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$E$65:$F$65</c:f>
+              <c:f>'Sprint 2'!$H$15</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ước tính</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$I$15:$Y$15</c:f>
+              <c:numCache>
+                <c:formatCode>dd/mm</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45762</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45766</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45770</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45773</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45774</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$I$66:$Y$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-92BE-41A1-B3E2-D9B056587C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Thực tế</c:v>
                 </c:pt>
@@ -1998,172 +2194,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81FC-4A45-8256-CB4502D0DB4A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint 2'!$E$66:$F$66</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Ước tính</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Sprint 2'!$I$15:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>45758</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45760</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45761</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45762</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45763</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45764</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45765</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45766</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45770</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45771</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45741</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45773</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45774</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint 2'!$I$66:$Y$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-81FC-4A45-8256-CB4502D0DB4A}"/>
+              <c16:uniqueId val="{00000003-92BE-41A1-B3E2-D9B056587C7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2177,11 +2208,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="162387600"/>
-        <c:axId val="162388560"/>
+        <c:axId val="568397215"/>
+        <c:axId val="275010031"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="162387600"/>
+        <c:axId val="568397215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="45758"/>
@@ -2225,14 +2256,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162388560"/>
+        <c:crossAx val="275010031"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="162388560"/>
+        <c:axId val="275010031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,9 +2314,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162387600"/>
+        <c:crossAx val="568397215"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2295,6 +2326,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2353,6 +2415,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2364,7 +2456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$E$66:$F$66</c:f>
+              <c:f>'Sprint 3'!$E$74:$F$74</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2471,7 +2563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$66:$AC$66</c:f>
+              <c:f>'Sprint 3'!$I$74:$AC$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2521,19 +2613,19 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2553,7 +2645,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 3'!$E$67:$F$67</c:f>
+              <c:f>'Sprint 3'!$E$75:$F$75</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2660,7 +2752,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$I$67:$AC$67</c:f>
+              <c:f>'Sprint 3'!$I$75:$AC$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2686,10 +2778,10 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>88</c:v>
@@ -2698,7 +2790,7 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>64</c:v>
@@ -2707,19 +2799,19 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10</c:v>
@@ -2864,6 +2956,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4582,23 +4705,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>517071</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>75292</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374197</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>117929</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>36285</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199572</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322798D4-979F-5817-096F-3CC055BD334C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12A0B16-5CC6-B837-986B-F17F48D16801}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,13 +4748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>48078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>90713</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4925,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView topLeftCell="B76" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5187,7 +5310,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="51" t="s">
@@ -5195,10 +5318,10 @@
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="52"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -5258,16 +5381,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="51" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="52"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -5327,16 +5450,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -5396,18 +5519,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -5467,16 +5590,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="51" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -5536,16 +5659,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="51" t="s">
         <v>81</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -5605,16 +5728,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="51" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -5674,16 +5797,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="51" t="s">
         <v>176</v>
       </c>
       <c r="D23" s="52"/>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -5743,16 +5866,16 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="51" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -5812,12 +5935,12 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -5841,18 +5964,18 @@
       <c r="Y25" s="20"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -5912,16 +6035,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="51" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -5981,16 +6104,16 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="51" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -6050,16 +6173,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -6119,16 +6242,16 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="51" t="s">
         <v>175</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="20">
         <v>4</v>
       </c>
@@ -6188,16 +6311,16 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="52"/>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="20">
         <v>4</v>
       </c>
@@ -6257,12 +6380,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="51"/>
       <c r="D32" s="52"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -6285,18 +6408,18 @@
       <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="51" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="20">
         <v>4</v>
       </c>
@@ -6356,16 +6479,16 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="51" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -6425,16 +6548,16 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="51" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -6494,16 +6617,16 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="51" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="52"/>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -6563,16 +6686,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="51" t="s">
         <v>89</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="20">
         <v>3</v>
       </c>
@@ -6632,12 +6755,12 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="51"/>
       <c r="D38" s="52"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -6660,16 +6783,16 @@
       <c r="Y38" s="20"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="51" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="52"/>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="20">
         <v>5</v>
       </c>
@@ -6729,12 +6852,12 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="51"/>
       <c r="D40" s="52"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -6757,16 +6880,16 @@
       <c r="Y40" s="20"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="51" t="s">
         <v>88</v>
       </c>
       <c r="D41" s="52"/>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="41"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="20">
         <v>2</v>
       </c>
@@ -6826,16 +6949,16 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="51" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="52"/>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="20">
         <v>2</v>
       </c>
@@ -6895,16 +7018,16 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="51" t="s">
         <v>170</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="20">
         <v>4</v>
       </c>
@@ -6964,16 +7087,16 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="51" t="s">
         <v>171</v>
       </c>
       <c r="D44" s="52"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -7033,16 +7156,16 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="52"/>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="20">
         <v>1</v>
       </c>
@@ -7102,12 +7225,12 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -7130,18 +7253,18 @@
       <c r="Y46" s="37"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="52"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="41"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="20">
         <v>3</v>
       </c>
@@ -7201,16 +7324,16 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="51" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="20">
         <v>3</v>
       </c>
@@ -7270,16 +7393,16 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="51" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="52"/>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="44"/>
       <c r="G49" s="20">
         <v>3</v>
       </c>
@@ -7339,16 +7462,16 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="51" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="20">
         <v>3</v>
       </c>
@@ -7408,16 +7531,16 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="51" t="s">
         <v>172</v>
       </c>
       <c r="D51" s="52"/>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -7477,12 +7600,12 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="51"/>
       <c r="D52" s="52"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -7505,18 +7628,18 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="41"/>
+      <c r="B53" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="52"/>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="41"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="20">
         <v>0</v>
       </c>
@@ -7576,12 +7699,12 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -7604,16 +7727,16 @@
       <c r="Y54" s="20"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="51" t="s">
         <v>73</v>
       </c>
       <c r="D55" s="52"/>
-      <c r="E55" s="40" t="s">
+      <c r="E55" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="41"/>
+      <c r="F55" s="44"/>
       <c r="G55" s="20">
         <v>0</v>
       </c>
@@ -7673,12 +7796,12 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -7701,16 +7824,16 @@
       <c r="Y56" s="20"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="51" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="52"/>
-      <c r="E57" s="40" t="s">
+      <c r="E57" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="44"/>
       <c r="G57" s="20">
         <v>0</v>
       </c>
@@ -7770,12 +7893,12 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -7798,16 +7921,16 @@
       <c r="Y58" s="20"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
       <c r="C59" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D59" s="52"/>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="41"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="20">
         <v>0</v>
       </c>
@@ -7867,12 +7990,12 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -7895,16 +8018,16 @@
       <c r="Y60" s="20"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="62" t="s">
         <v>173</v>
       </c>
       <c r="D61" s="63"/>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="41"/>
+      <c r="F61" s="44"/>
       <c r="G61" s="20">
         <v>0</v>
       </c>
@@ -7964,12 +8087,12 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="41"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -7992,18 +8115,18 @@
       <c r="Y62" s="20"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="42" t="s">
+      <c r="A63" s="41"/>
+      <c r="B63" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C63" s="51" t="s">
         <v>43</v>
       </c>
       <c r="D63" s="52"/>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="41"/>
+      <c r="F63" s="44"/>
       <c r="G63" s="20">
         <v>0</v>
       </c>
@@ -8063,12 +8186,12 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -8091,16 +8214,16 @@
       <c r="Y64" s="20"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
       <c r="C65" s="51" t="s">
         <v>74</v>
       </c>
       <c r="D65" s="52"/>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="41"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="20">
         <v>0</v>
       </c>
@@ -8160,12 +8283,12 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="41"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
@@ -8188,16 +8311,16 @@
       <c r="Y66" s="20"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
       <c r="C67" s="51" t="s">
         <v>99</v>
       </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="20">
         <v>0</v>
       </c>
@@ -8257,12 +8380,12 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="41"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
@@ -8285,16 +8408,16 @@
       <c r="Y68" s="20"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
       <c r="C69" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D69" s="52"/>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="41"/>
+      <c r="F69" s="44"/>
       <c r="G69" s="20">
         <v>0</v>
       </c>
@@ -8354,12 +8477,12 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="41"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -8382,16 +8505,16 @@
       <c r="Y70" s="20"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="51" t="s">
         <v>174</v>
       </c>
       <c r="D71" s="52"/>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="41"/>
+      <c r="F71" s="44"/>
       <c r="G71" s="20">
         <v>0</v>
       </c>
@@ -8451,12 +8574,12 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A72" s="43"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="51"/>
       <c r="D72" s="52"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="41"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="44"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -8479,8 +8602,8 @@
       <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A73" s="43"/>
-      <c r="B73" s="42" t="s">
+      <c r="A73" s="41"/>
+      <c r="B73" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C73" s="51" t="s">
@@ -8550,8 +8673,8 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A74" s="43"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="51" t="s">
         <v>35</v>
       </c>
@@ -8619,7 +8742,7 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A75" s="43"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="45" t="s">
         <v>12</v>
       </c>
@@ -8651,7 +8774,7 @@
         <v>132</v>
       </c>
       <c r="M75" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(M16:M74)</f>
         <v>118</v>
       </c>
       <c r="N75" s="20">
@@ -8663,7 +8786,7 @@
         <v>98</v>
       </c>
       <c r="P75" s="20">
-        <f t="shared" si="0"/>
+        <f>SUM(P16:P74)</f>
         <v>92</v>
       </c>
       <c r="Q75" s="20">
@@ -8704,7 +8827,7 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
+      <c r="A76" s="42"/>
       <c r="B76" s="48"/>
       <c r="C76" s="49"/>
       <c r="D76" s="50"/>
@@ -8730,8 +8853,8 @@
         <v>138</v>
       </c>
       <c r="L76" s="20">
-        <f>SUM(L16:L74)-L22</f>
-        <v>130</v>
+        <f>SUM(L16:L74)</f>
+        <v>132</v>
       </c>
       <c r="M76" s="20">
         <f>M75</f>
@@ -8746,40 +8869,40 @@
         <v>98</v>
       </c>
       <c r="P76" s="20">
-        <f>SUM(P16:P74)-Q25-Q32-Q38</f>
-        <v>95</v>
+        <f>SUM(P16:P74)</f>
+        <v>92</v>
       </c>
       <c r="Q76" s="20">
         <f>Q75-Q38-Q32-Q25</f>
         <v>78</v>
       </c>
       <c r="R76" s="20">
-        <f>SUM(R16:R74)+S40</f>
-        <v>71</v>
+        <f>SUM(R16:R74)</f>
+        <v>70</v>
       </c>
       <c r="S76" s="20">
-        <f>SUM(S16:S74)</f>
-        <v>61</v>
+        <f>SUM(S16:S74)-S40</f>
+        <v>60</v>
       </c>
       <c r="T76" s="20">
         <f>SUM(T16:T74)-T40-T38</f>
         <v>50</v>
       </c>
       <c r="U76" s="20">
-        <f>SUM(U16:U74)</f>
-        <v>23</v>
+        <f>SUM(U16:U74)-U46-U52</f>
+        <v>32</v>
       </c>
       <c r="V76" s="20">
-        <f>SUM(V16:V74)</f>
+        <f>SUM(V16:V74)-V54-V56-V64-V66</f>
+        <v>26</v>
+      </c>
+      <c r="W76" s="20">
+        <f>SUM(W16:W74)-W58-W60-W68-W70</f>
         <v>20</v>
       </c>
-      <c r="W76" s="20">
-        <f>SUM(W16:W74)</f>
-        <v>14</v>
-      </c>
       <c r="X76" s="20">
-        <f>SUM(X16:X74)</f>
-        <v>0</v>
+        <f>SUM(X16:X74)-X62-X72</f>
+        <v>10</v>
       </c>
       <c r="Y76" s="20">
         <f>SUM(Y16:Y74)</f>
@@ -8938,8 +9061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB87"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y63" sqref="Y63"/>
+    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:Y66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10932,10 +11055,10 @@
     <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="68"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -11098,10 +11221,10 @@
     <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="68"/>
       <c r="B45" s="68"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -11194,7 +11317,7 @@
     </row>
     <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A47" s="68"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C47" s="70" t="s">
@@ -11265,11 +11388,11 @@
     </row>
     <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A48" s="68"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -11293,7 +11416,7 @@
     </row>
     <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="68"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="70" t="s">
         <v>125</v>
       </c>
@@ -11362,11 +11485,11 @@
     </row>
     <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="68"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -11390,7 +11513,7 @@
     </row>
     <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A51" s="68"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="70" t="s">
         <v>126</v>
       </c>
@@ -11459,11 +11582,11 @@
     </row>
     <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A52" s="68"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -11487,7 +11610,7 @@
     </row>
     <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="68"/>
-      <c r="B53" s="43"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="70" t="s">
         <v>127</v>
       </c>
@@ -11556,11 +11679,11 @@
     </row>
     <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="68"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -11656,10 +11779,10 @@
     <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="44"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -11850,10 +11973,10 @@
     <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A60" s="68"/>
       <c r="B60" s="68"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="44"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -12232,48 +12355,48 @@
         <v>116</v>
       </c>
       <c r="N66" s="20">
-        <f>SUM(N16:N64)+P24</f>
-        <v>105</v>
+        <f>SUM(N16:N64)</f>
+        <v>106</v>
       </c>
       <c r="O66" s="20">
         <f>SUM(O16:O64)-P24</f>
         <v>97</v>
       </c>
       <c r="P66" s="20">
-        <f>SUM(P16:P64)</f>
-        <v>81</v>
+        <f>SUM(P16:P64)-P30-P35-P24</f>
+        <v>82</v>
       </c>
       <c r="Q66" s="20">
         <f>SUM(Q16:Q64)+R30</f>
         <v>78</v>
       </c>
       <c r="R66" s="20">
-        <f>SUM(R16:R64)</f>
-        <v>62</v>
+        <f>SUM(R16:R64)-R42</f>
+        <v>66</v>
       </c>
       <c r="S66" s="20">
         <f>SUM(S16:S64)</f>
         <v>54</v>
       </c>
       <c r="T66" s="20">
-        <f>SUM(T16:T64)-T35</f>
-        <v>38</v>
+        <f>SUM(T16:T64)-T45</f>
+        <v>40</v>
       </c>
       <c r="U66" s="20">
         <f>SUM(U16:U64)</f>
         <v>30</v>
       </c>
       <c r="V66" s="20">
-        <f>SUM(V16:V64)</f>
+        <f>SUM(V16:V64)-V56-V50-V48</f>
+        <v>24</v>
+      </c>
+      <c r="W66" s="20">
+        <f>SUM(W16:W64)-W58-W52</f>
         <v>18</v>
       </c>
-      <c r="W66" s="20">
-        <f>SUM(W16:W64)</f>
-        <v>12</v>
-      </c>
       <c r="X66" s="20">
-        <f>SUM(X16:X64)</f>
-        <v>2</v>
+        <f>SUM(X16:X64)-X54-X60-X62</f>
+        <v>10</v>
       </c>
       <c r="Y66" s="20">
         <f>SUM(Y16:Y64)</f>
@@ -12415,10 +12538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AC67"/>
+  <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y72" sqref="Y72"/>
+    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q91" sqref="Q91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12531,11 +12654,11 @@
         <v>76</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Thành",$G$16:$G$65)+SUMIF($E$16:$F$65,"All team",$G$16:$G$65)/5+SUMIF($E$16:$F$65,"Thành,Hoàng",$G$16:$G$65)/2</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Thành",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$G$16:$G$73)/2</f>
         <v>5.6</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Thành",$H$16:$H$65)+SUMIF($E$16:$F$65,"ALL team",$H$16:$H$65)/5+SUMIF($E$16:$F$65,"Thành,Hoàng",$H$16:$H$65)/2</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Thành",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$H$16:$H$73)/2</f>
         <v>6</v>
       </c>
     </row>
@@ -12547,11 +12670,11 @@
         <v>77</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Mạnh",$G$16:$G$65)+SUMIF($E$16:$F$65,"All team",$G$16:$G$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc",$G$16:$G$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Mạnh",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
         <v>5.6</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Mạnh",$H$16:$H$65)+SUMIF($E$16:$F$65,"ALL team",$H$16:$H$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc",$H$16:$H$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Mạnh",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
         <v>6</v>
       </c>
     </row>
@@ -12563,11 +12686,11 @@
         <v>78</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Phương",$G$16:$G$65)+SUMIF($E$16:$F$65,"All team",$G$16:$G$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Phương",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
         <v>5.6</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Phương",$H$16:$H$65)+SUMIF($E$16:$F$65,"ALL team",$H$16:$H$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Phương",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
         <v>6</v>
       </c>
     </row>
@@ -12579,11 +12702,11 @@
         <v>79</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Lộc",$G$16:$G$65)+SUMIF($E$16:$F$65,"All team",$G$16:$G$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc",$G$16:$G$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Lộc",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
         <v>5.6</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Hoàng",$H$16:$H$65)+SUMIF($E$16:$F$65,"ALL team",$H$16:$H$65)/5+SUMIF($E$16:$F$65,"Mạnh,Lộc",$H$16:$H$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
         <v>6</v>
       </c>
     </row>
@@ -12595,11 +12718,11 @@
         <v>80</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Hoàng",$G$16:$G$65)+SUMIF($E$16:$F$65,"All team",$G$16:$G$65)/5+SUMIF($E$16:$F$65,"Thành,Hoàng",$G$16:$G$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
         <v>5.6</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">SUMIF($E$16:$F$65,"Hoàng",$H$16:$H$65)+SUMIF($E$16:$F$65,"ALL team",$H$16:$H$65)/5+SUMIF($E$16:$F$65,"Thành,Hoàng",$H$16:$H$65)/2+SUMIF($E$16:$F$65,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$65)/4</f>
+        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
         <v>6</v>
       </c>
     </row>
@@ -12703,7 +12826,7 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="51" t="s">
@@ -12711,10 +12834,10 @@
       </c>
       <c r="C16" s="59"/>
       <c r="D16" s="52"/>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -12786,16 +12909,16 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="51" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="52"/>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -12867,16 +12990,16 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="52"/>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -12948,18 +13071,18 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>133</v>
       </c>
       <c r="D19" s="52"/>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="41"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -13031,16 +13154,16 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="51" t="s">
         <v>134</v>
       </c>
       <c r="D20" s="52"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -13112,16 +13235,16 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="51" t="s">
         <v>135</v>
       </c>
       <c r="D21" s="52"/>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -13193,16 +13316,16 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="51" t="s">
         <v>136</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="44"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -13274,16 +13397,16 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="62" t="s">
         <v>137</v>
       </c>
       <c r="D23" s="63"/>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -13355,16 +13478,16 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="51" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -13436,12 +13559,12 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -13468,18 +13591,18 @@
       <c r="AC25" s="20"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="43"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="51" t="s">
         <v>138</v>
       </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -13551,16 +13674,16 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
       <c r="C27" s="51" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -13632,16 +13755,16 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="51" t="s">
         <v>141</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -13713,16 +13836,16 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="51" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -13794,16 +13917,16 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="51" t="s">
         <v>142</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="20">
         <v>5</v>
       </c>
@@ -13875,12 +13998,12 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -13907,16 +14030,16 @@
       <c r="AC31" s="20"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="51" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="52"/>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="20">
         <v>4</v>
       </c>
@@ -13988,12 +14111,12 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="44"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -14020,18 +14143,18 @@
       <c r="AC33" s="20"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="43"/>
-      <c r="B34" s="42" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>143</v>
       </c>
       <c r="D34" s="52"/>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -14103,16 +14226,16 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="51" t="s">
         <v>146</v>
       </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -14184,16 +14307,16 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="51" t="s">
         <v>145</v>
       </c>
       <c r="D36" s="52"/>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="44"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -14265,16 +14388,16 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="51" t="s">
         <v>147</v>
       </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="20">
         <v>4</v>
       </c>
@@ -14346,16 +14469,16 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="51" t="s">
         <v>144</v>
       </c>
       <c r="D38" s="52"/>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="20">
         <v>4</v>
       </c>
@@ -14427,16 +14550,16 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="51" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="52"/>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="41"/>
+      <c r="F39" s="44"/>
       <c r="G39" s="20">
         <v>6</v>
       </c>
@@ -14508,16 +14631,16 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="51" t="s">
         <v>155</v>
       </c>
       <c r="D40" s="52"/>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="41"/>
+      <c r="F40" s="44"/>
       <c r="G40" s="20">
         <v>4</v>
       </c>
@@ -14589,12 +14712,12 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -14621,16 +14744,16 @@
       <c r="AC41" s="20"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="51" t="s">
         <v>154</v>
       </c>
       <c r="D42" s="52"/>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="44"/>
       <c r="G42" s="20">
         <v>4</v>
       </c>
@@ -14702,16 +14825,16 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="51" t="s">
         <v>148</v>
       </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="20">
         <v>4</v>
       </c>
@@ -14783,16 +14906,16 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="51" t="s">
         <v>149</v>
       </c>
       <c r="D44" s="52"/>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -14864,12 +14987,12 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -14896,16 +15019,16 @@
       <c r="AC45" s="20"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="51" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="52"/>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="41"/>
+      <c r="F46" s="44"/>
       <c r="G46" s="20">
         <v>2</v>
       </c>
@@ -14977,18 +15100,18 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A47" s="43"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="41"/>
+      <c r="B47" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>150</v>
       </c>
       <c r="D47" s="52"/>
-      <c r="E47" s="40" t="s">
+      <c r="E47" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="41"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="20">
         <v>4</v>
       </c>
@@ -15060,16 +15183,16 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
       <c r="C48" s="51" t="s">
         <v>151</v>
       </c>
       <c r="D48" s="52"/>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="44"/>
       <c r="G48" s="20">
         <v>8</v>
       </c>
@@ -15141,16 +15264,16 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
       <c r="C49" s="51" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="52"/>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F49" s="41"/>
+      <c r="F49" s="44"/>
       <c r="G49" s="20">
         <v>4</v>
       </c>
@@ -15222,16 +15345,16 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
       <c r="C50" s="51" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="52"/>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="44"/>
       <c r="G50" s="20">
         <v>8</v>
       </c>
@@ -15303,16 +15426,16 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="51" t="s">
         <v>169</v>
       </c>
       <c r="D51" s="52"/>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="44"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -15384,18 +15507,18 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A52" s="43"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="51" t="s">
         <v>159</v>
       </c>
       <c r="D52" s="52"/>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="44"/>
       <c r="G52" s="20">
         <v>0</v>
       </c>
@@ -15467,12 +15590,12 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -15499,18 +15622,18 @@
       <c r="AC53" s="20"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="51" t="s">
         <v>160</v>
       </c>
       <c r="D54" s="52"/>
-      <c r="E54" s="40" t="s">
+      <c r="E54" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="41"/>
+      <c r="F54" s="44"/>
       <c r="G54" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
@@ -15560,12 +15683,10 @@
       <c r="W54" s="20">
         <v>1</v>
       </c>
-      <c r="X54" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="21">
-        <v>0</v>
-      </c>
+      <c r="X54" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="20"/>
       <c r="Z54" s="37">
         <v>0</v>
       </c>
@@ -15580,1068 +15701,1349 @@
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="51" t="s">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="22">
+        <v>-1</v>
+      </c>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="40" t="s">
+      <c r="D56" s="52"/>
+      <c r="E56" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="20">
-        <v>2</v>
-      </c>
-      <c r="H55" s="20">
-        <v>2</v>
-      </c>
-      <c r="I55" s="20">
-        <v>2</v>
-      </c>
-      <c r="J55" s="20">
-        <v>2</v>
-      </c>
-      <c r="K55" s="20">
-        <v>2</v>
-      </c>
-      <c r="L55" s="20">
-        <v>2</v>
-      </c>
-      <c r="M55" s="20">
-        <v>2</v>
-      </c>
-      <c r="N55" s="20">
-        <v>2</v>
-      </c>
-      <c r="O55" s="20">
-        <v>2</v>
-      </c>
-      <c r="P55" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="20">
-        <v>2</v>
-      </c>
-      <c r="R55" s="20">
-        <v>2</v>
-      </c>
-      <c r="S55" s="20">
-        <v>2</v>
-      </c>
-      <c r="T55" s="20">
-        <v>2</v>
-      </c>
-      <c r="U55" s="20">
-        <v>2</v>
-      </c>
-      <c r="V55" s="20">
-        <v>2</v>
-      </c>
-      <c r="W55" s="20">
-        <v>2</v>
-      </c>
-      <c r="X55" s="20">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="20">
-        <v>2</v>
-      </c>
-      <c r="Z55" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA55" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="51" t="s">
+      <c r="F56" s="44"/>
+      <c r="G56" s="20">
+        <v>0</v>
+      </c>
+      <c r="H56" s="20">
+        <v>2</v>
+      </c>
+      <c r="I56" s="20">
+        <v>2</v>
+      </c>
+      <c r="J56" s="20">
+        <v>2</v>
+      </c>
+      <c r="K56" s="20">
+        <v>2</v>
+      </c>
+      <c r="L56" s="20">
+        <v>2</v>
+      </c>
+      <c r="M56" s="20">
+        <v>2</v>
+      </c>
+      <c r="N56" s="20">
+        <v>2</v>
+      </c>
+      <c r="O56" s="20">
+        <v>2</v>
+      </c>
+      <c r="P56" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="20">
+        <v>2</v>
+      </c>
+      <c r="R56" s="20">
+        <v>2</v>
+      </c>
+      <c r="S56" s="20">
+        <v>2</v>
+      </c>
+      <c r="T56" s="20">
+        <v>2</v>
+      </c>
+      <c r="U56" s="20">
+        <v>2</v>
+      </c>
+      <c r="V56" s="20">
+        <v>2</v>
+      </c>
+      <c r="W56" s="20">
+        <v>2</v>
+      </c>
+      <c r="X56" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="86">
+        <v>-2</v>
+      </c>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="40" t="s">
+      <c r="D58" s="52"/>
+      <c r="E58" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="41"/>
-      <c r="G56" s="20">
-        <v>4</v>
-      </c>
-      <c r="H56" s="20">
-        <v>4</v>
-      </c>
-      <c r="I56" s="20">
-        <v>4</v>
-      </c>
-      <c r="J56" s="20">
-        <v>4</v>
-      </c>
-      <c r="K56" s="20">
-        <v>4</v>
-      </c>
-      <c r="L56" s="20">
-        <v>4</v>
-      </c>
-      <c r="M56" s="20">
-        <v>4</v>
-      </c>
-      <c r="N56" s="20">
-        <v>4</v>
-      </c>
-      <c r="O56" s="20">
-        <v>4</v>
-      </c>
-      <c r="P56" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q56" s="20">
-        <v>4</v>
-      </c>
-      <c r="R56" s="20">
-        <v>4</v>
-      </c>
-      <c r="S56" s="20">
-        <v>4</v>
-      </c>
-      <c r="T56" s="20">
-        <v>4</v>
-      </c>
-      <c r="U56" s="20">
-        <v>4</v>
-      </c>
-      <c r="V56" s="20">
-        <v>4</v>
-      </c>
-      <c r="W56" s="20">
-        <v>4</v>
-      </c>
-      <c r="X56" s="20">
-        <v>4</v>
-      </c>
-      <c r="Y56" s="20">
-        <v>4</v>
-      </c>
-      <c r="Z56" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA56" s="20">
-        <v>4</v>
-      </c>
-      <c r="AB56" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="51" t="s">
+      <c r="F58" s="44"/>
+      <c r="G58" s="20">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20">
+        <v>4</v>
+      </c>
+      <c r="I58" s="20">
+        <v>4</v>
+      </c>
+      <c r="J58" s="20">
+        <v>4</v>
+      </c>
+      <c r="K58" s="20">
+        <v>4</v>
+      </c>
+      <c r="L58" s="20">
+        <v>4</v>
+      </c>
+      <c r="M58" s="20">
+        <v>4</v>
+      </c>
+      <c r="N58" s="20">
+        <v>4</v>
+      </c>
+      <c r="O58" s="20">
+        <v>4</v>
+      </c>
+      <c r="P58" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="20">
+        <v>4</v>
+      </c>
+      <c r="R58" s="20">
+        <v>4</v>
+      </c>
+      <c r="S58" s="20">
+        <v>4</v>
+      </c>
+      <c r="T58" s="20">
+        <v>4</v>
+      </c>
+      <c r="U58" s="20">
+        <v>4</v>
+      </c>
+      <c r="V58" s="20">
+        <v>4</v>
+      </c>
+      <c r="W58" s="20">
+        <v>4</v>
+      </c>
+      <c r="X58" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z58" s="20">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="22">
+        <v>-4</v>
+      </c>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="40" t="s">
+      <c r="D60" s="52"/>
+      <c r="E60" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="41"/>
-      <c r="G57" s="20">
-        <v>2</v>
-      </c>
-      <c r="H57" s="20">
-        <v>2</v>
-      </c>
-      <c r="I57" s="20">
-        <v>2</v>
-      </c>
-      <c r="J57" s="20">
-        <v>2</v>
-      </c>
-      <c r="K57" s="20">
-        <v>2</v>
-      </c>
-      <c r="L57" s="20">
-        <v>2</v>
-      </c>
-      <c r="M57" s="20">
-        <v>2</v>
-      </c>
-      <c r="N57" s="20">
-        <v>2</v>
-      </c>
-      <c r="O57" s="20">
-        <v>2</v>
-      </c>
-      <c r="P57" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q57" s="20">
-        <v>2</v>
-      </c>
-      <c r="R57" s="20">
-        <v>2</v>
-      </c>
-      <c r="S57" s="20">
-        <v>2</v>
-      </c>
-      <c r="T57" s="20">
-        <v>2</v>
-      </c>
-      <c r="U57" s="20">
-        <v>2</v>
-      </c>
-      <c r="V57" s="20">
-        <v>2</v>
-      </c>
-      <c r="W57" s="20">
-        <v>2</v>
-      </c>
-      <c r="X57" s="20">
-        <v>2</v>
-      </c>
-      <c r="Y57" s="20">
-        <v>2</v>
-      </c>
-      <c r="Z57" s="20">
-        <v>2</v>
-      </c>
-      <c r="AA57" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="20"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="23">
-        <v>2</v>
-      </c>
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A59" s="43"/>
-      <c r="B59" s="42" t="s">
+      <c r="F60" s="44"/>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
+        <v>2</v>
+      </c>
+      <c r="I60" s="20">
+        <v>2</v>
+      </c>
+      <c r="J60" s="20">
+        <v>2</v>
+      </c>
+      <c r="K60" s="20">
+        <v>2</v>
+      </c>
+      <c r="L60" s="20">
+        <v>2</v>
+      </c>
+      <c r="M60" s="20">
+        <v>2</v>
+      </c>
+      <c r="N60" s="20">
+        <v>2</v>
+      </c>
+      <c r="O60" s="20">
+        <v>2</v>
+      </c>
+      <c r="P60" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="20">
+        <v>2</v>
+      </c>
+      <c r="R60" s="20">
+        <v>2</v>
+      </c>
+      <c r="S60" s="20">
+        <v>2</v>
+      </c>
+      <c r="T60" s="20">
+        <v>2</v>
+      </c>
+      <c r="U60" s="20">
+        <v>2</v>
+      </c>
+      <c r="V60" s="20">
+        <v>2</v>
+      </c>
+      <c r="W60" s="20">
+        <v>2</v>
+      </c>
+      <c r="X60" s="20">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="20">
+        <v>2</v>
+      </c>
+      <c r="Z60" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA60" s="20">
+        <v>2</v>
+      </c>
+      <c r="AB60" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="22">
+        <v>-2</v>
+      </c>
+      <c r="AC61" s="20"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A62" s="41"/>
+      <c r="B62" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C62" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="40" t="s">
+      <c r="D62" s="52"/>
+      <c r="E62" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="20">
-        <v>2</v>
-      </c>
-      <c r="H59" s="20">
-        <v>2</v>
-      </c>
-      <c r="I59" s="20">
-        <v>2</v>
-      </c>
-      <c r="J59" s="20">
-        <v>2</v>
-      </c>
-      <c r="K59" s="20">
-        <v>2</v>
-      </c>
-      <c r="L59" s="20">
-        <v>2</v>
-      </c>
-      <c r="M59" s="20">
-        <v>2</v>
-      </c>
-      <c r="N59" s="20">
-        <v>2</v>
-      </c>
-      <c r="O59" s="20">
-        <v>2</v>
-      </c>
-      <c r="P59" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q59" s="20">
-        <v>2</v>
-      </c>
-      <c r="R59" s="20">
-        <v>2</v>
-      </c>
-      <c r="S59" s="20">
-        <v>2</v>
-      </c>
-      <c r="T59" s="20">
-        <v>2</v>
-      </c>
-      <c r="U59" s="20">
-        <v>2</v>
-      </c>
-      <c r="V59" s="20">
-        <v>2</v>
-      </c>
-      <c r="W59" s="20">
-        <v>2</v>
-      </c>
-      <c r="X59" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="51" t="s">
+      <c r="F62" s="44"/>
+      <c r="G62" s="20">
+        <v>0</v>
+      </c>
+      <c r="H62" s="20">
+        <v>2</v>
+      </c>
+      <c r="I62" s="20">
+        <v>2</v>
+      </c>
+      <c r="J62" s="20">
+        <v>2</v>
+      </c>
+      <c r="K62" s="20">
+        <v>2</v>
+      </c>
+      <c r="L62" s="20">
+        <v>2</v>
+      </c>
+      <c r="M62" s="20">
+        <v>2</v>
+      </c>
+      <c r="N62" s="20">
+        <v>2</v>
+      </c>
+      <c r="O62" s="20">
+        <v>2</v>
+      </c>
+      <c r="P62" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="20">
+        <v>2</v>
+      </c>
+      <c r="R62" s="20">
+        <v>2</v>
+      </c>
+      <c r="S62" s="20">
+        <v>2</v>
+      </c>
+      <c r="T62" s="20">
+        <v>2</v>
+      </c>
+      <c r="U62" s="20">
+        <v>2</v>
+      </c>
+      <c r="V62" s="20">
+        <v>2</v>
+      </c>
+      <c r="W62" s="20">
+        <v>2</v>
+      </c>
+      <c r="X62" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="37"/>
+      <c r="AC63" s="20"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="40" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="20">
-        <v>2</v>
-      </c>
-      <c r="H60" s="20">
-        <v>2</v>
-      </c>
-      <c r="I60" s="20">
-        <v>2</v>
-      </c>
-      <c r="J60" s="20">
-        <v>2</v>
-      </c>
-      <c r="K60" s="20">
-        <v>2</v>
-      </c>
-      <c r="L60" s="20">
-        <v>2</v>
-      </c>
-      <c r="M60" s="20">
-        <v>2</v>
-      </c>
-      <c r="N60" s="20">
-        <v>2</v>
-      </c>
-      <c r="O60" s="20">
-        <v>2</v>
-      </c>
-      <c r="P60" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q60" s="20">
-        <v>2</v>
-      </c>
-      <c r="R60" s="20">
-        <v>2</v>
-      </c>
-      <c r="S60" s="20">
-        <v>2</v>
-      </c>
-      <c r="T60" s="20">
-        <v>2</v>
-      </c>
-      <c r="U60" s="20">
-        <v>2</v>
-      </c>
-      <c r="V60" s="20">
-        <v>2</v>
-      </c>
-      <c r="W60" s="20">
-        <v>2</v>
-      </c>
-      <c r="X60" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="37">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="51" t="s">
+      <c r="F64" s="44"/>
+      <c r="G64" s="20">
+        <v>0</v>
+      </c>
+      <c r="H64" s="20">
+        <v>2</v>
+      </c>
+      <c r="I64" s="20">
+        <v>2</v>
+      </c>
+      <c r="J64" s="20">
+        <v>2</v>
+      </c>
+      <c r="K64" s="20">
+        <v>2</v>
+      </c>
+      <c r="L64" s="20">
+        <v>2</v>
+      </c>
+      <c r="M64" s="20">
+        <v>2</v>
+      </c>
+      <c r="N64" s="20">
+        <v>2</v>
+      </c>
+      <c r="O64" s="20">
+        <v>2</v>
+      </c>
+      <c r="P64" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="20">
+        <v>2</v>
+      </c>
+      <c r="R64" s="20">
+        <v>2</v>
+      </c>
+      <c r="S64" s="20">
+        <v>2</v>
+      </c>
+      <c r="T64" s="20">
+        <v>2</v>
+      </c>
+      <c r="U64" s="20">
+        <v>2</v>
+      </c>
+      <c r="V64" s="20">
+        <v>2</v>
+      </c>
+      <c r="W64" s="20">
+        <v>2</v>
+      </c>
+      <c r="X64" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="22">
+        <v>-2</v>
+      </c>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="37"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="37"/>
+      <c r="AC65" s="20"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="52"/>
-      <c r="E61" s="40" t="s">
+      <c r="D66" s="52"/>
+      <c r="E66" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="F61" s="41"/>
-      <c r="G61" s="20">
-        <v>4</v>
-      </c>
-      <c r="H61" s="20">
-        <v>4</v>
-      </c>
-      <c r="I61" s="20">
-        <v>4</v>
-      </c>
-      <c r="J61" s="20">
-        <v>4</v>
-      </c>
-      <c r="K61" s="20">
-        <v>4</v>
-      </c>
-      <c r="L61" s="20">
-        <v>4</v>
-      </c>
-      <c r="M61" s="20">
-        <v>4</v>
-      </c>
-      <c r="N61" s="20">
-        <v>4</v>
-      </c>
-      <c r="O61" s="20">
-        <v>4</v>
-      </c>
-      <c r="P61" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q61" s="20">
-        <v>4</v>
-      </c>
-      <c r="R61" s="20">
-        <v>4</v>
-      </c>
-      <c r="S61" s="20">
-        <v>4</v>
-      </c>
-      <c r="T61" s="20">
-        <v>4</v>
-      </c>
-      <c r="U61" s="20">
-        <v>4</v>
-      </c>
-      <c r="V61" s="20">
-        <v>4</v>
-      </c>
-      <c r="W61" s="20">
-        <v>4</v>
-      </c>
-      <c r="X61" s="20">
-        <v>4</v>
-      </c>
-      <c r="Y61" s="20">
-        <v>4</v>
-      </c>
-      <c r="Z61" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="51" t="s">
+      <c r="F66" s="44"/>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
+        <v>4</v>
+      </c>
+      <c r="I66" s="20">
+        <v>4</v>
+      </c>
+      <c r="J66" s="20">
+        <v>4</v>
+      </c>
+      <c r="K66" s="20">
+        <v>4</v>
+      </c>
+      <c r="L66" s="20">
+        <v>4</v>
+      </c>
+      <c r="M66" s="20">
+        <v>4</v>
+      </c>
+      <c r="N66" s="20">
+        <v>4</v>
+      </c>
+      <c r="O66" s="20">
+        <v>4</v>
+      </c>
+      <c r="P66" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="20">
+        <v>4</v>
+      </c>
+      <c r="R66" s="20">
+        <v>4</v>
+      </c>
+      <c r="S66" s="20">
+        <v>4</v>
+      </c>
+      <c r="T66" s="20">
+        <v>4</v>
+      </c>
+      <c r="U66" s="20">
+        <v>4</v>
+      </c>
+      <c r="V66" s="20">
+        <v>4</v>
+      </c>
+      <c r="W66" s="20">
+        <v>4</v>
+      </c>
+      <c r="X66" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="22">
+        <v>-4</v>
+      </c>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="37"/>
+      <c r="AC67" s="20"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="40" t="s">
+      <c r="D68" s="52"/>
+      <c r="E68" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="F62" s="41"/>
-      <c r="G62" s="20">
+      <c r="F68" s="44"/>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="20">
         <v>8</v>
       </c>
-      <c r="H62" s="20">
+      <c r="I68" s="20">
         <v>8</v>
       </c>
-      <c r="I62" s="20">
+      <c r="J68" s="20">
         <v>8</v>
       </c>
-      <c r="J62" s="20">
+      <c r="K68" s="20">
         <v>8</v>
       </c>
-      <c r="K62" s="20">
+      <c r="L68" s="20">
         <v>8</v>
       </c>
-      <c r="L62" s="20">
+      <c r="M68" s="20">
         <v>8</v>
       </c>
-      <c r="M62" s="20">
+      <c r="N68" s="20">
         <v>8</v>
       </c>
-      <c r="N62" s="20">
+      <c r="O68" s="20">
         <v>8</v>
       </c>
-      <c r="O62" s="20">
+      <c r="P68" s="20">
         <v>8</v>
       </c>
-      <c r="P62" s="20">
+      <c r="Q68" s="20">
         <v>8</v>
       </c>
-      <c r="Q62" s="20">
+      <c r="R68" s="20">
         <v>8</v>
       </c>
-      <c r="R62" s="20">
+      <c r="S68" s="20">
         <v>8</v>
       </c>
-      <c r="S62" s="20">
+      <c r="T68" s="20">
         <v>8</v>
       </c>
-      <c r="T62" s="20">
+      <c r="U68" s="20">
         <v>8</v>
       </c>
-      <c r="U62" s="20">
+      <c r="V68" s="20">
         <v>8</v>
       </c>
-      <c r="V62" s="20">
+      <c r="W68" s="20">
         <v>8</v>
       </c>
-      <c r="W62" s="20">
+      <c r="X68" s="20">
         <v>8</v>
       </c>
-      <c r="X62" s="20">
+      <c r="Y68" s="20">
         <v>8</v>
       </c>
-      <c r="Y62" s="20">
+      <c r="Z68" s="20">
         <v>8</v>
       </c>
-      <c r="Z62" s="20">
-        <v>8</v>
-      </c>
-      <c r="AA62" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="37">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="51" t="s">
+      <c r="AA68" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="22">
+        <v>-8</v>
+      </c>
+      <c r="AB69" s="37"/>
+      <c r="AC69" s="20"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="40" t="s">
+      <c r="D70" s="52"/>
+      <c r="E70" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="20">
-        <v>4</v>
-      </c>
-      <c r="H63" s="20">
-        <v>4</v>
-      </c>
-      <c r="I63" s="20">
-        <v>4</v>
-      </c>
-      <c r="J63" s="20">
-        <v>4</v>
-      </c>
-      <c r="K63" s="20">
-        <v>4</v>
-      </c>
-      <c r="L63" s="20">
-        <v>4</v>
-      </c>
-      <c r="M63" s="20">
-        <v>4</v>
-      </c>
-      <c r="N63" s="20">
-        <v>4</v>
-      </c>
-      <c r="O63" s="20">
-        <v>4</v>
-      </c>
-      <c r="P63" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="20">
-        <v>4</v>
-      </c>
-      <c r="R63" s="20">
-        <v>4</v>
-      </c>
-      <c r="S63" s="20">
-        <v>4</v>
-      </c>
-      <c r="T63" s="20">
-        <v>4</v>
-      </c>
-      <c r="U63" s="20">
-        <v>4</v>
-      </c>
-      <c r="V63" s="20">
-        <v>4</v>
-      </c>
-      <c r="W63" s="20">
-        <v>4</v>
-      </c>
-      <c r="X63" s="20">
-        <v>4</v>
-      </c>
-      <c r="Y63" s="20">
-        <v>4</v>
-      </c>
-      <c r="Z63" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA63" s="20">
-        <v>4</v>
-      </c>
-      <c r="AB63" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A64" s="43"/>
-      <c r="B64" s="42" t="s">
+      <c r="F70" s="44"/>
+      <c r="G70" s="20">
+        <v>0</v>
+      </c>
+      <c r="H70" s="20">
+        <v>4</v>
+      </c>
+      <c r="I70" s="20">
+        <v>4</v>
+      </c>
+      <c r="J70" s="20">
+        <v>4</v>
+      </c>
+      <c r="K70" s="20">
+        <v>4</v>
+      </c>
+      <c r="L70" s="20">
+        <v>4</v>
+      </c>
+      <c r="M70" s="20">
+        <v>4</v>
+      </c>
+      <c r="N70" s="20">
+        <v>4</v>
+      </c>
+      <c r="O70" s="20">
+        <v>4</v>
+      </c>
+      <c r="P70" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q70" s="20">
+        <v>4</v>
+      </c>
+      <c r="R70" s="20">
+        <v>4</v>
+      </c>
+      <c r="S70" s="20">
+        <v>4</v>
+      </c>
+      <c r="T70" s="20">
+        <v>4</v>
+      </c>
+      <c r="U70" s="20">
+        <v>4</v>
+      </c>
+      <c r="V70" s="20">
+        <v>4</v>
+      </c>
+      <c r="W70" s="20">
+        <v>4</v>
+      </c>
+      <c r="X70" s="20">
+        <v>4</v>
+      </c>
+      <c r="Y70" s="20">
+        <v>4</v>
+      </c>
+      <c r="Z70" s="20">
+        <v>4</v>
+      </c>
+      <c r="AA70" s="20">
+        <v>4</v>
+      </c>
+      <c r="AB70" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="22">
+        <v>-4</v>
+      </c>
+      <c r="AC71" s="20"/>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A72" s="41"/>
+      <c r="B72" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C72" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="40" t="s">
+      <c r="D72" s="52"/>
+      <c r="E72" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="20">
+      <c r="F72" s="44"/>
+      <c r="G72" s="20">
         <v>5</v>
       </c>
-      <c r="H64" s="20">
+      <c r="H72" s="20">
         <v>5</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I72" s="20">
         <v>5</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J72" s="20">
         <v>5</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K72" s="20">
         <v>5</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L72" s="20">
         <v>5</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M72" s="20">
         <v>5</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N72" s="20">
         <v>5</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O72" s="20">
         <v>5</v>
       </c>
-      <c r="P64" s="20">
+      <c r="P72" s="20">
         <v>5</v>
       </c>
-      <c r="Q64" s="20">
+      <c r="Q72" s="20">
         <v>5</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R72" s="20">
         <v>5</v>
       </c>
-      <c r="S64" s="20">
+      <c r="S72" s="20">
         <v>5</v>
       </c>
-      <c r="T64" s="20">
+      <c r="T72" s="20">
         <v>5</v>
       </c>
-      <c r="U64" s="20">
+      <c r="U72" s="20">
         <v>5</v>
       </c>
-      <c r="V64" s="20">
+      <c r="V72" s="20">
         <v>5</v>
       </c>
-      <c r="W64" s="20">
+      <c r="W72" s="20">
         <v>5</v>
       </c>
-      <c r="X64" s="20">
+      <c r="X72" s="20">
         <v>5</v>
       </c>
-      <c r="Y64" s="20">
+      <c r="Y72" s="20">
         <v>5</v>
       </c>
-      <c r="Z64" s="20">
+      <c r="Z72" s="20">
         <v>5</v>
       </c>
-      <c r="AA64" s="20">
+      <c r="AA72" s="20">
         <v>5</v>
       </c>
-      <c r="AB64" s="20">
+      <c r="AB72" s="20">
         <v>5</v>
       </c>
-      <c r="AC64" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="43"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="51" t="s">
+      <c r="AC72" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="40" t="s">
+      <c r="D73" s="52"/>
+      <c r="E73" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="20">
+      <c r="F73" s="44"/>
+      <c r="G73" s="20">
         <v>5</v>
       </c>
-      <c r="H65" s="20">
+      <c r="H73" s="20">
         <v>5</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I73" s="20">
         <v>5</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J73" s="20">
         <v>5</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K73" s="20">
         <v>5</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L73" s="20">
         <v>5</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M73" s="20">
         <v>5</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N73" s="20">
         <v>5</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O73" s="20">
         <v>5</v>
       </c>
-      <c r="P65" s="20">
+      <c r="P73" s="20">
         <v>5</v>
       </c>
-      <c r="Q65" s="20">
+      <c r="Q73" s="20">
         <v>5</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R73" s="20">
         <v>5</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S73" s="20">
         <v>5</v>
       </c>
-      <c r="T65" s="20">
+      <c r="T73" s="20">
         <v>5</v>
       </c>
-      <c r="U65" s="20">
+      <c r="U73" s="20">
         <v>5</v>
       </c>
-      <c r="V65" s="20">
+      <c r="V73" s="20">
         <v>5</v>
       </c>
-      <c r="W65" s="20">
+      <c r="W73" s="20">
         <v>5</v>
       </c>
-      <c r="X65" s="20">
+      <c r="X73" s="20">
         <v>5</v>
       </c>
-      <c r="Y65" s="20">
+      <c r="Y73" s="20">
         <v>5</v>
       </c>
-      <c r="Z65" s="20">
+      <c r="Z73" s="20">
         <v>5</v>
       </c>
-      <c r="AA65" s="20">
+      <c r="AA73" s="20">
         <v>5</v>
       </c>
-      <c r="AB65" s="20">
+      <c r="AB73" s="20">
         <v>5</v>
       </c>
-      <c r="AC65" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A66" s="43"/>
-      <c r="B66" s="45" t="s">
+      <c r="AC73" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A74" s="41"/>
+      <c r="B74" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="53" t="s">
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="54"/>
-      <c r="G66" s="40">
-        <f>SUM(G16:G65)</f>
-        <v>174</v>
-      </c>
-      <c r="H66" s="41"/>
-      <c r="I66" s="20">
-        <f>SUM(I16:I65)</f>
+      <c r="F74" s="54"/>
+      <c r="G74" s="43">
+        <f>SUM(G16:G73)</f>
+        <v>145</v>
+      </c>
+      <c r="H74" s="44"/>
+      <c r="I74" s="20">
+        <f>SUM(I16:I73)</f>
         <v>176</v>
       </c>
-      <c r="J66" s="20">
-        <f>SUM(J16:J65)</f>
+      <c r="J74" s="20">
+        <f>SUM(J16:J73)</f>
         <v>166</v>
       </c>
-      <c r="K66" s="20">
-        <f>SUM(K16:K65)</f>
+      <c r="K74" s="20">
+        <f>SUM(K16:K73)</f>
         <v>156</v>
       </c>
-      <c r="L66" s="20">
-        <f>SUM(L16:L65)</f>
+      <c r="L74" s="20">
+        <f>SUM(L16:L73)</f>
         <v>150</v>
       </c>
-      <c r="M66" s="20">
-        <f>SUM(M16:M65)</f>
+      <c r="M74" s="20">
+        <f>SUM(M16:M73)</f>
         <v>140</v>
       </c>
-      <c r="N66" s="20">
-        <f>SUM(N16:N65)-N25</f>
+      <c r="N74" s="20">
+        <f>SUM(N16:N73)-N25</f>
         <v>130</v>
       </c>
-      <c r="O66" s="20">
-        <f t="shared" ref="O66:Y66" si="0">SUM(O16:O65)</f>
+      <c r="O74" s="20">
+        <f t="shared" ref="O74:Y74" si="0">SUM(O16:O73)</f>
         <v>120</v>
       </c>
-      <c r="P66" s="20">
+      <c r="P74" s="20">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="Q66" s="20">
+      <c r="Q74" s="20">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="R66" s="20">
+      <c r="R74" s="20">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="S66" s="20">
+      <c r="S74" s="20">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="T66" s="20">
+      <c r="T74" s="20">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="U66" s="20">
+      <c r="U74" s="20">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="V66" s="20">
+      <c r="V74" s="20">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="W66" s="20">
+      <c r="W74" s="20">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="X66" s="20">
+      <c r="X74" s="20">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="Y66" s="20">
+        <v>28</v>
+      </c>
+      <c r="Y74" s="20">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="Z66" s="20">
-        <f>SUM(Z16:Z65)-Z53</f>
         <v>30</v>
       </c>
-      <c r="AA66" s="20">
-        <f>SUM(AA16:AA65)</f>
-        <v>20</v>
-      </c>
-      <c r="AB66" s="20">
-        <f>SUM(AB16:AB65)</f>
-        <v>10</v>
-      </c>
-      <c r="AC66" s="20">
-        <f>SUM(AC16:AC65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="53" t="s">
+      <c r="Z74" s="20">
+        <f>SUM(Z16:Z73)-Z53</f>
+        <v>26</v>
+      </c>
+      <c r="AA74" s="20">
+        <f>SUM(AA16:AA73)</f>
+        <v>4</v>
+      </c>
+      <c r="AB74" s="20">
+        <f>SUM(AB16:AB73)</f>
+        <v>4</v>
+      </c>
+      <c r="AC74" s="20">
+        <f>SUM(AC16:AC73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A75" s="42"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F67" s="54"/>
-      <c r="G67" s="40">
-        <f>SUM(H16:H65)</f>
+      <c r="F75" s="54"/>
+      <c r="G75" s="43">
+        <f>SUM(H16:H73)</f>
         <v>176</v>
       </c>
-      <c r="H67" s="41"/>
-      <c r="I67" s="20">
-        <f>SUM(I16:I65)</f>
+      <c r="H75" s="44"/>
+      <c r="I75" s="20">
+        <f>SUM(I16:I73)</f>
         <v>176</v>
       </c>
-      <c r="J67" s="20">
-        <f>SUM(J16:J65)</f>
+      <c r="J75" s="20">
+        <f>SUM(J16:J73)</f>
         <v>166</v>
       </c>
-      <c r="K67" s="20">
-        <f>SUM(K16:K65)</f>
+      <c r="K75" s="20">
+        <f>SUM(K16:K73)</f>
         <v>156</v>
       </c>
-      <c r="L67" s="20">
-        <f>SUM(L16:L65)</f>
+      <c r="L75" s="20">
+        <f>SUM(L16:L73)</f>
         <v>150</v>
       </c>
-      <c r="M67" s="20">
-        <f>SUM(M16:M65)</f>
+      <c r="M75" s="20">
+        <f>SUM(M16:M73)</f>
         <v>140</v>
       </c>
-      <c r="N67" s="20">
-        <f>SUM(N16:N65)-N25</f>
+      <c r="N75" s="20">
+        <f>SUM(N16:N73)-N25</f>
         <v>130</v>
       </c>
-      <c r="O67" s="20">
-        <f t="shared" ref="O67:X67" si="1">SUM(O16:O65)</f>
+      <c r="O75" s="20">
+        <f t="shared" ref="O75:X75" si="1">SUM(O16:O73)</f>
         <v>120</v>
       </c>
-      <c r="P67" s="20">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="Q67" s="20">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="R67" s="20">
+      <c r="P75" s="20">
+        <f>SUM(P16:P73)-P31</f>
+        <v>110</v>
+      </c>
+      <c r="Q75" s="20">
+        <f>SUM(Q16:Q73)-Q33-Q25</f>
+        <v>96</v>
+      </c>
+      <c r="R75" s="20">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="S67" s="20">
+      <c r="S75" s="20">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="T67" s="20">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="U67" s="20">
+      <c r="T75" s="20">
+        <f>SUM(T16:T73)-T41</f>
+        <v>68</v>
+      </c>
+      <c r="U75" s="20">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="V67" s="20">
+      <c r="V75" s="20">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="W67" s="20">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="X67" s="20">
-        <f t="shared" si="1"/>
+      <c r="W75" s="20">
+        <f>SUM(W16:W73)-W45</f>
+        <v>40</v>
+      </c>
+      <c r="X75" s="20">
+        <f>SUM(X16:X73)-X65-X63-X55-X53</f>
         <v>34</v>
       </c>
-      <c r="Y67" s="20">
-        <f>SUM(Y16:Y65)+Z53</f>
-        <v>34</v>
-      </c>
-      <c r="Z67" s="20">
-        <f>SUM(Z16:Z65)-Z53</f>
+      <c r="Y75" s="20">
+        <f>SUM(Y16:Y73)-Y57</f>
+        <v>32</v>
+      </c>
+      <c r="Z75" s="20">
+        <f>SUM(Z16:Z73)-Z67</f>
         <v>30</v>
       </c>
-      <c r="AA67" s="20">
-        <f>SUM(AA16:AA65)</f>
-        <v>20</v>
-      </c>
-      <c r="AB67" s="20">
-        <f>SUM(AB16:AB65)</f>
+      <c r="AA75" s="20">
+        <f>SUM(AA16:AA73)-AA69-AA59</f>
+        <v>16</v>
+      </c>
+      <c r="AB75" s="20">
+        <f>SUM(AB16:AB73)-AB71-AB61</f>
         <v>10</v>
       </c>
-      <c r="AC67" s="20">
-        <f t="shared" ref="AC67" si="2">SUM(AC16:AC65)</f>
+      <c r="AC75" s="20">
+        <f t="shared" ref="AC75" si="2">SUM(AC16:AC73)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="137">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E58:F58"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E38:F38"/>
@@ -16651,21 +17053,36 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E75:F75"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B72:B73"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C60:D60"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
@@ -16677,17 +17094,24 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="B52:B61"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B66:D67"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="B74:D75"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E32:F32"/>
@@ -16698,33 +17122,10 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A16:A75"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -16747,8 +17148,6 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/tailieu/10.ProjectSprintBacklog.xlsx
+++ b/tailieu/10.ProjectSprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XDWQLPTH1792\tailieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17442C3-F991-409F-BCAC-B0656CB326CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE199E6-B6EB-42FF-B182-0110FD9FB813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="176">
   <si>
     <t>End date:</t>
   </si>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>Thiết kế front-end cho chat Realtime và thông báo</t>
-  </si>
-  <si>
-    <t>Trình,An</t>
   </si>
   <si>
     <t>Trình</t>
@@ -1108,6 +1105,7 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1242,7 +1240,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5048,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA75" sqref="AA75"/>
+    <sheetView zoomScale="55" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5072,10 +5069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -5085,10 +5082,10 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
@@ -5098,10 +5095,10 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="36">
         <v>45742</v>
       </c>
@@ -5111,22 +5108,22 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57"/>
+      <c r="A4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="58"/>
       <c r="C4" s="36">
         <v>45757</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
@@ -5150,12 +5147,12 @@
         <v>76</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Thành",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Thành,Mạnh",$G$16:$G$74)/2</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Huy",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Huy,An",$G$16:$G$74)/2</f>
+        <v>27.6</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Thành",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Thành,Mạnh",$H$16:$H$74)/2</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Huy",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Huy,An",$H$16:$H$74)/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -5166,12 +5163,12 @@
         <v>77</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Mạnh",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Thành,Mạnh",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"Mạnh,Phương",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$74)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Tuyết",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$G$16:$G$74)/3+SUMIF($E$16:$F$74,"An,Tuyết",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"Trình,Tuyết",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$G$16:$G$74)/4</f>
+        <v>25.6</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Mạnh",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Thành,Mạnh",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"Mạnh,Phương",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$74)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Tuyết",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$H$16:$H$74)/3+SUMIF($E$16:$F$74,"An,Tuyết",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"Trình,Tuyết",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$H$16:$H$74)/4</f>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -5182,12 +5179,12 @@
         <v>78</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Phương",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Mạnh,Phương",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$74)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"An",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Huy,An",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"An,Trình",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"An,Tuyết",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$G$16:$G$74)/4</f>
+        <v>22.6</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Phương",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Mạnh,Phương",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$74)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"An",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Huy,An",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"An,Trình",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"An,Tuyết",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"An,Trình,tuyết,Sáng",$H$16:$H$74)/4</f>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -5198,12 +5195,12 @@
         <v>79</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Lộc",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$74)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Sáng",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$G$16:$G$74)/3+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$G$16:$G$74)/4</f>
+        <v>26.6</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Lộc",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$74)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Sáng",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$H$16:$H$74)/3+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$H$16:$H$74)/4</f>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -5214,26 +5211,26 @@
         <v>80</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Hoàng",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$74)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Trình",$G$16:$G$74)+SUMIF($E$16:$F$74,"All team",$G$16:$G$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$G$16:$G$74)/3+SUMIF($E$16:$F$74,"An,Trình",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"Trình,Tuyết",$G$16:$G$74)/2+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$G$16:$G$74)/4</f>
+        <v>22.6</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">SUMIF($E$16:$F$74,"Hoàng",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$74)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$74,"Trình",$H$16:$H$74)+SUMIF($E$16:$F$74,"All team",$H$16:$H$74)/5+SUMIF($E$16:$F$74,"Tuyết,Sáng,Trình",$H$16:$H$74)/3+SUMIF($E$16:$F$74,"An,Trình",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"Trình,Tuyết",$H$16:$H$74)/2+SUMIF($E$16:$F$74,"An,Trình,Tuyết,Sáng",$H$16:$H$74)/4</f>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">SUM(E8:E12)</f>
-        <v>30</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5243,14 +5240,14 @@
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -5310,18 +5307,18 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -5381,16 +5378,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -5450,16 +5447,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -5519,18 +5516,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -5590,16 +5587,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="51" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -5659,16 +5656,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -5728,16 +5725,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -5797,16 +5794,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="52"/>
-      <c r="E23" s="43" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -5866,16 +5863,16 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="51" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -5935,12 +5932,12 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -5964,18 +5961,18 @@
       <c r="Y25" s="20"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="43" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -6035,16 +6032,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="51" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -6104,16 +6101,16 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="43" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -6173,16 +6170,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -6242,16 +6239,16 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="43" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D30" s="53"/>
+      <c r="E30" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="20">
         <v>4</v>
       </c>
@@ -6311,16 +6308,16 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="43" t="s">
+      <c r="D31" s="53"/>
+      <c r="E31" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="20">
         <v>4</v>
       </c>
@@ -6380,12 +6377,12 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -6408,18 +6405,18 @@
       <c r="Y32" s="20"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="52"/>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="53"/>
+      <c r="E33" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="20">
         <v>4</v>
       </c>
@@ -6479,16 +6476,16 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="51" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -6548,16 +6545,16 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="51" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -6617,16 +6614,16 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -6686,16 +6683,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="51" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="43" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="20">
         <v>3</v>
       </c>
@@ -6755,12 +6752,12 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="20"/>
@@ -6783,16 +6780,16 @@
       <c r="Y38" s="20"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="51" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="20">
         <v>5</v>
       </c>
@@ -6852,12 +6849,12 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -6880,16 +6877,16 @@
       <c r="Y40" s="20"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="51" t="s">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="43" t="s">
+      <c r="D41" s="53"/>
+      <c r="E41" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="20">
         <v>2</v>
       </c>
@@ -6949,16 +6946,16 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="51" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="20">
         <v>2</v>
       </c>
@@ -7018,85 +7015,85 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="20">
+        <v>4</v>
+      </c>
+      <c r="H43" s="20">
+        <v>4</v>
+      </c>
+      <c r="I43" s="20">
+        <v>4</v>
+      </c>
+      <c r="J43" s="20">
+        <v>4</v>
+      </c>
+      <c r="K43" s="20">
+        <v>4</v>
+      </c>
+      <c r="L43" s="20">
+        <v>4</v>
+      </c>
+      <c r="M43" s="20">
+        <v>4</v>
+      </c>
+      <c r="N43" s="20">
+        <v>4</v>
+      </c>
+      <c r="O43" s="20">
+        <v>4</v>
+      </c>
+      <c r="P43" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="20">
+        <v>4</v>
+      </c>
+      <c r="R43" s="20">
+        <v>4</v>
+      </c>
+      <c r="S43" s="20">
+        <v>4</v>
+      </c>
+      <c r="T43" s="21">
+        <v>0</v>
+      </c>
+      <c r="U43" s="37">
+        <v>0</v>
+      </c>
+      <c r="V43" s="37">
+        <v>0</v>
+      </c>
+      <c r="W43" s="20">
+        <v>0</v>
+      </c>
+      <c r="X43" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="44"/>
-      <c r="G43" s="20">
-        <v>4</v>
-      </c>
-      <c r="H43" s="20">
-        <v>4</v>
-      </c>
-      <c r="I43" s="20">
-        <v>4</v>
-      </c>
-      <c r="J43" s="20">
-        <v>4</v>
-      </c>
-      <c r="K43" s="20">
-        <v>4</v>
-      </c>
-      <c r="L43" s="20">
-        <v>4</v>
-      </c>
-      <c r="M43" s="20">
-        <v>4</v>
-      </c>
-      <c r="N43" s="20">
-        <v>4</v>
-      </c>
-      <c r="O43" s="20">
-        <v>4</v>
-      </c>
-      <c r="P43" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="20">
-        <v>4</v>
-      </c>
-      <c r="R43" s="20">
-        <v>4</v>
-      </c>
-      <c r="S43" s="20">
-        <v>4</v>
-      </c>
-      <c r="T43" s="21">
-        <v>0</v>
-      </c>
-      <c r="U43" s="37">
-        <v>0</v>
-      </c>
-      <c r="V43" s="37">
-        <v>0</v>
-      </c>
-      <c r="W43" s="20">
-        <v>0</v>
-      </c>
-      <c r="X43" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="43" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -7156,16 +7153,16 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="51" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="43" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="20">
         <v>1</v>
       </c>
@@ -7225,12 +7222,12 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
@@ -7253,18 +7250,18 @@
       <c r="Y46" s="37"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="43" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="20">
         <v>3</v>
       </c>
@@ -7324,16 +7321,16 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="51" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="53"/>
+      <c r="E48" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="20">
         <v>3</v>
       </c>
@@ -7393,16 +7390,16 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="51" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="43" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="20">
         <v>3</v>
       </c>
@@ -7462,16 +7459,16 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="51" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="43" t="s">
+      <c r="D50" s="53"/>
+      <c r="E50" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="20">
         <v>3</v>
       </c>
@@ -7531,16 +7528,16 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="43" t="s">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -7600,12 +7597,12 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="44"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -7628,18 +7625,18 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="42"/>
+      <c r="B53" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D53" s="52"/>
-      <c r="E53" s="43" t="s">
+      <c r="D53" s="53"/>
+      <c r="E53" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="20">
         <v>0</v>
       </c>
@@ -7699,12 +7696,12 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="44"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -7727,16 +7724,16 @@
       <c r="Y54" s="20"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="51" t="s">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="52"/>
-      <c r="E55" s="43" t="s">
+      <c r="D55" s="53"/>
+      <c r="E55" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="20">
         <v>0</v>
       </c>
@@ -7796,12 +7793,12 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -7824,16 +7821,16 @@
       <c r="Y56" s="20"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="51" t="s">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="52"/>
-      <c r="E57" s="43" t="s">
+      <c r="D57" s="53"/>
+      <c r="E57" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="20">
         <v>0</v>
       </c>
@@ -7893,12 +7890,12 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="44"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -7921,16 +7918,16 @@
       <c r="Y58" s="20"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="51" t="s">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="52"/>
-      <c r="E59" s="43" t="s">
+      <c r="D59" s="53"/>
+      <c r="E59" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="44"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="20">
         <v>0</v>
       </c>
@@ -7990,12 +7987,12 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -8018,16 +8015,16 @@
       <c r="Y60" s="20"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="43" t="s">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="64"/>
+      <c r="E61" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="20">
         <v>0</v>
       </c>
@@ -8087,12 +8084,12 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="44"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -8115,18 +8112,18 @@
       <c r="Y62" s="20"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="40" t="s">
+      <c r="A63" s="42"/>
+      <c r="B63" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D63" s="52"/>
-      <c r="E63" s="43" t="s">
+      <c r="D63" s="53"/>
+      <c r="E63" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="20">
         <v>0</v>
       </c>
@@ -8186,12 +8183,12 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="44"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
@@ -8214,16 +8211,16 @@
       <c r="Y64" s="20"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="51" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="52"/>
-      <c r="E65" s="43" t="s">
+      <c r="D65" s="53"/>
+      <c r="E65" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="20">
         <v>0</v>
       </c>
@@ -8283,12 +8280,12 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
@@ -8311,16 +8308,16 @@
       <c r="Y66" s="20"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="51" t="s">
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="43" t="s">
+      <c r="D67" s="53"/>
+      <c r="E67" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="20">
         <v>0</v>
       </c>
@@ -8380,12 +8377,12 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="44"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="20"/>
@@ -8408,16 +8405,16 @@
       <c r="Y68" s="20"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="51" t="s">
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="52"/>
-      <c r="E69" s="43" t="s">
+      <c r="D69" s="53"/>
+      <c r="E69" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="20">
         <v>0</v>
       </c>
@@ -8477,12 +8474,12 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="44"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="20"/>
@@ -8505,16 +8502,16 @@
       <c r="Y70" s="20"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D71" s="52"/>
-      <c r="E71" s="43" t="s">
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="53"/>
+      <c r="E71" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="20">
         <v>0</v>
       </c>
@@ -8574,12 +8571,12 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A72" s="41"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="44"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
@@ -8602,18 +8599,18 @@
       <c r="Y72" s="20"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A73" s="41"/>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="53"/>
+      <c r="E73" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="57"/>
       <c r="G73" s="20">
         <v>5</v>
       </c>
@@ -8673,16 +8670,16 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A74" s="41"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="55" t="s">
+      <c r="D74" s="53"/>
+      <c r="E74" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="20">
         <v>5</v>
       </c>
@@ -8742,21 +8739,21 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A75" s="41"/>
-      <c r="B75" s="45" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="53" t="s">
+      <c r="C75" s="47"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="53">
+      <c r="F75" s="55"/>
+      <c r="G75" s="54">
         <f>SUM(G16:G74)</f>
         <v>125</v>
       </c>
-      <c r="H75" s="54"/>
+      <c r="H75" s="55"/>
       <c r="I75" s="20">
         <f t="shared" ref="I75:X75" si="0">SUM(I16:I74)</f>
         <v>158</v>
@@ -8827,19 +8824,19 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A76" s="42"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="53" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="54"/>
-      <c r="G76" s="53">
+      <c r="F76" s="55"/>
+      <c r="G76" s="54">
         <f>SUM(H16:H74)</f>
         <v>158</v>
       </c>
-      <c r="H76" s="54"/>
+      <c r="H76" s="55"/>
       <c r="I76" s="20">
         <f>SUM(I16:I74)</f>
         <v>158</v>
@@ -9061,8 +9058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65:Y66"/>
+    <sheetView zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9080,10 +9077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -9094,10 +9091,10 @@
       </c>
     </row>
     <row r="2" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
@@ -9108,10 +9105,10 @@
       </c>
     </row>
     <row r="3" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="36">
         <v>45758</v>
       </c>
@@ -9122,10 +9119,10 @@
       </c>
     </row>
     <row r="4" spans="1:54" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="65"/>
+      <c r="A4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
       <c r="C4" s="36">
         <v>45773</v>
       </c>
@@ -9147,12 +9144,12 @@
     </row>
     <row r="6" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -9178,12 +9175,12 @@
         <v>76</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Thành",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Thành,Phương",$G$16:$G$64)/2</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Huy",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"An,Huy",$G$16:$G$64)/2</f>
+        <v>28.6</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Thành",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Mạnh,Hoàng",$H$16:$H$64)/2</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Huy",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"An,Huy",$H$16:$H$64)/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -9195,12 +9192,12 @@
         <v>77</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Mạnh",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Mạnh,Hoàng",$G$16:$G$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$64)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Tuyết",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$G$16:$G$64)/3+SUMIF($E$16:$F$64,"Sáng,Tuyết",$G$16:$G$64)/2</f>
+        <v>25.6</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Mạnh",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Mạnh,Hoàng",$H$16:$H$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$64)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Tuyết",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$H$16:$H$64)/3+SUMIF($E$16:$F$64,"Sáng,Tuyết",$H$16:$H$64)/2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -9212,12 +9209,12 @@
         <v>78</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Phương",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Thành,Phương",$G$16:$G$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$64)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"An",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"An,Huy",$G$16:$G$64)/2+SUMIF($E$16:$F$64,"An,Trình",$G$16:$G$64)/2</f>
+        <v>20.6</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Phương",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Thành,Phương",$H$16:$H$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$64)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"An",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"An,Huy",$H$16:$H$64)/2+SUMIF($E$16:$F$64,"An,Trình",$H$16:$H$64)/2</f>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -9229,12 +9226,12 @@
         <v>79</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Lộc",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$64)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Sáng",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$G$16:$G$64)/3+SUMIF($E$16:$F$64,"Sáng,Tuyết",$G$16:$G$64)/2</f>
+        <v>29.6</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Lộc",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$64)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Sáng",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$H$16:$H$64)/3+SUMIF($E$16:$F$64,"Sáng,Tuyết",$H$16:$H$64)/2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -9246,27 +9243,27 @@
         <v>80</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Hoàng",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Mạnh,Hoàng",$G$16:$G$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$64)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Trình",$G$16:$G$64)+SUMIF($E$16:$F$64,"All team",$G$16:$G$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$G$16:$G$64)/3+SUMIF($E$16:$F$64,"An,Trình",$G$16:$G$64)/2</f>
+        <v>20.6</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">SUMIF($E$16:$F$64,"Hoàng",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Mạnh,Hoàng",$H$16:$H$64)/2+SUMIF($E$16:$F$64,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$64)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$64,"Trình",$H$16:$H$64)+SUMIF($E$16:$F$64,"All team",$H$16:$H$64)/5+SUMIF($E$16:$F$64,"Trình,Sáng,Tuyết",$H$16:$H$64)/3+SUMIF($E$16:$F$64,"An,Trình",$H$16:$H$64)/2</f>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">SUM(E8:E12)</f>
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9276,14 +9273,14 @@
       <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -9372,18 +9369,18 @@
       <c r="BB15" s="2"/>
     </row>
     <row r="16" spans="1:54" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="71"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -9443,16 +9440,16 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="68"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="71"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -9512,16 +9509,16 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="68"/>
-      <c r="B18" s="70" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="71"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -9581,18 +9578,18 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="68"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71" t="s">
+      <c r="D19" s="71"/>
+      <c r="E19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="71"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -9652,16 +9649,16 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="68"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="70" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71" t="s">
+      <c r="D20" s="71"/>
+      <c r="E20" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -9721,16 +9718,16 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="68"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="70" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="71"/>
+      <c r="E21" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="72"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -9790,16 +9787,16 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="68"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="70" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71" t="s">
+      <c r="D22" s="71"/>
+      <c r="E22" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="71"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -9859,16 +9856,16 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="70" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71" t="s">
+      <c r="D23" s="71"/>
+      <c r="E23" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="71"/>
+      <c r="F23" s="72"/>
       <c r="G23" s="20">
         <v>4</v>
       </c>
@@ -9928,12 +9925,12 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -9956,18 +9953,18 @@
       <c r="Y24" s="20"/>
     </row>
     <row r="25" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71" t="s">
+      <c r="D25" s="71"/>
+      <c r="E25" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="71"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="20">
         <v>4</v>
       </c>
@@ -10027,16 +10024,16 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="70" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71" t="s">
+      <c r="D26" s="71"/>
+      <c r="E26" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="71"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -10096,16 +10093,16 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="70" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71" t="s">
+      <c r="D27" s="71"/>
+      <c r="E27" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="71"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -10165,16 +10162,16 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="70" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71" t="s">
+      <c r="D28" s="71"/>
+      <c r="E28" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -10234,16 +10231,16 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="70" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71" t="s">
+      <c r="D29" s="71"/>
+      <c r="E29" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="71"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -10303,12 +10300,12 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="68"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
@@ -10331,18 +10328,18 @@
       <c r="Y30" s="20"/>
     </row>
     <row r="31" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="70" t="s">
+      <c r="C31" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71" t="s">
+      <c r="D31" s="71"/>
+      <c r="E31" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="20">
         <v>4</v>
       </c>
@@ -10402,16 +10399,16 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="68"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="70" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71" t="s">
+      <c r="D32" s="71"/>
+      <c r="E32" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="71"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="20">
         <v>4</v>
       </c>
@@ -10471,16 +10468,16 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="68"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="70" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71" t="s">
+      <c r="D33" s="71"/>
+      <c r="E33" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="72"/>
       <c r="G33" s="20">
         <v>4</v>
       </c>
@@ -10540,16 +10537,16 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="70" t="s">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71" t="s">
+      <c r="D34" s="71"/>
+      <c r="E34" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="71"/>
+      <c r="F34" s="72"/>
       <c r="G34" s="20">
         <v>5</v>
       </c>
@@ -10609,12 +10606,12 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="68"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
@@ -10637,16 +10634,16 @@
       <c r="Y35" s="20"/>
     </row>
     <row r="36" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="68"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="70" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71" t="s">
+      <c r="D36" s="71"/>
+      <c r="E36" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="71"/>
+      <c r="F36" s="72"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -10706,16 +10703,16 @@
       </c>
     </row>
     <row r="37" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="68"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="70" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71" t="s">
+      <c r="D37" s="71"/>
+      <c r="E37" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="71"/>
+      <c r="F37" s="72"/>
       <c r="G37" s="20">
         <v>4</v>
       </c>
@@ -10775,16 +10772,16 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="68"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="70" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="71"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="20">
         <v>6</v>
       </c>
@@ -10844,16 +10841,16 @@
       </c>
     </row>
     <row r="39" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="68"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="70" t="s">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71" t="s">
+      <c r="D39" s="71"/>
+      <c r="E39" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="71"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="20">
         <v>6</v>
       </c>
@@ -10913,16 +10910,16 @@
       </c>
     </row>
     <row r="40" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="68"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="70" t="s">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71" t="s">
+      <c r="D40" s="71"/>
+      <c r="E40" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F40" s="71"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="20">
         <v>2</v>
       </c>
@@ -10982,18 +10979,18 @@
       </c>
     </row>
     <row r="41" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="68"/>
-      <c r="B41" s="68" t="s">
+      <c r="A41" s="69"/>
+      <c r="B41" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71" t="s">
+      <c r="D41" s="71"/>
+      <c r="E41" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="71"/>
+      <c r="F41" s="72"/>
       <c r="G41" s="20">
         <v>4</v>
       </c>
@@ -11053,12 +11050,12 @@
       </c>
     </row>
     <row r="42" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="44"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
@@ -11081,16 +11078,16 @@
       <c r="Y42" s="20"/>
     </row>
     <row r="43" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="70" t="s">
+      <c r="A43" s="69"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71" t="s">
+      <c r="D43" s="71"/>
+      <c r="E43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="71"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="20">
         <v>6</v>
       </c>
@@ -11150,16 +11147,16 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="62" t="s">
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="71" t="s">
+      <c r="D44" s="64"/>
+      <c r="E44" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="71"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="20">
         <v>6</v>
       </c>
@@ -11219,12 +11216,12 @@
       </c>
     </row>
     <row r="45" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -11247,16 +11244,16 @@
       <c r="Y45" s="20"/>
     </row>
     <row r="46" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="68"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="70" t="s">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71" t="s">
+      <c r="D46" s="71"/>
+      <c r="E46" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="F46" s="71"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="20">
         <v>8</v>
       </c>
@@ -11316,18 +11313,18 @@
       </c>
     </row>
     <row r="47" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="68"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="69"/>
+      <c r="B47" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71" t="s">
+      <c r="D47" s="71"/>
+      <c r="E47" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="71"/>
+      <c r="F47" s="72"/>
       <c r="G47" s="20">
         <v>0</v>
       </c>
@@ -11387,12 +11384,12 @@
       </c>
     </row>
     <row r="48" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="68"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="44"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
@@ -11415,16 +11412,16 @@
       <c r="Y48" s="20"/>
     </row>
     <row r="49" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="68"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="70" t="s">
+      <c r="A49" s="69"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71" t="s">
+      <c r="D49" s="71"/>
+      <c r="E49" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="71"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="20">
         <v>0</v>
       </c>
@@ -11484,12 +11481,12 @@
       </c>
     </row>
     <row r="50" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="68"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="44"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="20"/>
@@ -11512,16 +11509,16 @@
       <c r="Y50" s="20"/>
     </row>
     <row r="51" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="68"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="70" t="s">
+      <c r="A51" s="69"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71" t="s">
+      <c r="D51" s="71"/>
+      <c r="E51" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F51" s="71"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="20">
         <v>0</v>
       </c>
@@ -11581,12 +11578,12 @@
       </c>
     </row>
     <row r="52" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="68"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="44"/>
+      <c r="A52" s="69"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
@@ -11609,16 +11606,16 @@
       <c r="Y52" s="20"/>
     </row>
     <row r="53" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="68"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="70" t="s">
+      <c r="A53" s="69"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71" t="s">
+      <c r="D53" s="71"/>
+      <c r="E53" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="71"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="20">
         <v>0</v>
       </c>
@@ -11678,12 +11675,12 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="68"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="44"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -11706,18 +11703,18 @@
       <c r="Y54" s="20"/>
     </row>
     <row r="55" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="69"/>
+      <c r="B55" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="70"/>
-      <c r="E55" s="71" t="s">
+      <c r="D55" s="71"/>
+      <c r="E55" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F55" s="71"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="20">
         <v>0</v>
       </c>
@@ -11777,12 +11774,12 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
@@ -11805,16 +11802,16 @@
       <c r="Y56" s="20"/>
     </row>
     <row r="57" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="68"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="70" t="s">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="71" t="s">
+      <c r="D57" s="71"/>
+      <c r="E57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="F57" s="71"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="20">
         <v>0</v>
       </c>
@@ -11874,12 +11871,12 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="68"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
@@ -11902,16 +11899,16 @@
       <c r="Y58" s="20"/>
     </row>
     <row r="59" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="68"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="70" t="s">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="71" t="s">
+      <c r="D59" s="71"/>
+      <c r="E59" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="71"/>
+      <c r="F59" s="72"/>
       <c r="G59" s="20">
         <v>0</v>
       </c>
@@ -11971,12 +11968,12 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="68"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="44"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
@@ -11999,16 +11996,16 @@
       <c r="Y60" s="20"/>
     </row>
     <row r="61" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="68"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="70" t="s">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71" t="s">
+      <c r="D61" s="71"/>
+      <c r="E61" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="71"/>
+      <c r="F61" s="72"/>
       <c r="G61" s="20">
         <v>0</v>
       </c>
@@ -12068,12 +12065,12 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="75"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -12096,18 +12093,18 @@
       <c r="Y62" s="20"/>
     </row>
     <row r="63" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="68"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="69"/>
+      <c r="B63" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="70"/>
-      <c r="E63" s="71" t="s">
+      <c r="D63" s="71"/>
+      <c r="E63" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F63" s="71"/>
+      <c r="F63" s="72"/>
       <c r="G63" s="20">
         <v>5</v>
       </c>
@@ -12167,16 +12164,16 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="68"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="70" t="s">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="70"/>
-      <c r="E64" s="71" t="s">
+      <c r="D64" s="71"/>
+      <c r="E64" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="71"/>
+      <c r="F64" s="72"/>
       <c r="G64" s="20">
         <v>5</v>
       </c>
@@ -12236,21 +12233,21 @@
       </c>
     </row>
     <row r="65" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="68"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="69"/>
+      <c r="B65" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="69" t="s">
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="71">
+      <c r="F65" s="70"/>
+      <c r="G65" s="72">
         <f>SUM(G16:G64)</f>
         <v>125</v>
       </c>
-      <c r="H65" s="71"/>
+      <c r="H65" s="72"/>
       <c r="I65" s="20">
         <f t="shared" ref="I65:N65" si="0">SUM(I16:I64)</f>
         <v>152</v>
@@ -12321,41 +12318,41 @@
       </c>
     </row>
     <row r="66" spans="1:25" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="68"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="69" t="s">
+      <c r="A66" s="69"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="69"/>
-      <c r="G66" s="71">
+      <c r="F66" s="70"/>
+      <c r="G66" s="72">
         <f>SUM(H16:H64)</f>
         <v>152</v>
       </c>
-      <c r="H66" s="71"/>
+      <c r="H66" s="72"/>
       <c r="I66" s="20">
-        <f>SUM(I16:I64)</f>
+        <f t="shared" ref="I66:N66" si="2">SUM(I16:I64)</f>
         <v>152</v>
       </c>
       <c r="J66" s="20">
-        <f>SUM(J16:J64)</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="K66" s="20">
-        <f>SUM(K16:K64)</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="L66" s="20">
-        <f>SUM(L16:L64)</f>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="M66" s="20">
-        <f>SUM(M16:M64)</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="N66" s="20">
-        <f>SUM(N16:N64)</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="O66" s="20">
@@ -12404,8 +12401,8 @@
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -12540,8 +12537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q91" sqref="Q91"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12567,10 +12564,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="35" t="s">
         <v>75</v>
       </c>
@@ -12580,10 +12577,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
@@ -12593,10 +12590,10 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="36">
         <v>45774</v>
       </c>
@@ -12606,10 +12603,10 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="57"/>
+      <c r="A4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="58"/>
       <c r="C4" s="36">
         <v>45793</v>
       </c>
@@ -12625,12 +12622,12 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="5" t="s">
@@ -12654,12 +12651,12 @@
         <v>76</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Thành",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$G$16:$G$73)/2</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Huy",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"An,Huy",$G$16:$G$73)/2</f>
+        <v>31.6</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Thành",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$H$16:$H$73)/2</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Huy",$H$16:$H$73)+SUMIF($E$16:$F$73,"All team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"An,Huy",$H$16:$H$73)/2</f>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -12670,12 +12667,12 @@
         <v>77</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Mạnh",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Tuyết",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$G$16:$G$73)/3+SUMIF($E$16:$F$73,"An,Tuyết",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Tuyết,Sáng",$G$16:$G$73)/2</f>
+        <v>27.6</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Mạnh",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Tuyết",$H$16:$H$73)+SUMIF($E$16:$F$73,"All team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$H$16:$H$73)/3+SUMIF($E$16:$F$73,"An,Tuyết",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Tuyết,Sáng",$H$16:$H$73)/2</f>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -12686,12 +12683,12 @@
         <v>78</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Phương",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"An",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"An,Huy",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"An,Trình",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"An,Tuyết",$G$16:$G$73)/2</f>
+        <v>28.1</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Phương",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"An",$H$16:$H$73)+SUMIF($E$16:$F$73,"All team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"An,Huy",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"An,Trình",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"An,Tuyết",$H$16:$H$73)/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -12702,12 +12699,12 @@
         <v>79</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Lộc",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Sáng",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$G$16:$G$73)/3+SUMIF($E$16:$F$73,"Tuyết,Sáng",$G$16:$G$73)/2</f>
+        <v>31.6</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Mạnh,Lộc",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Sáng",$H$16:$H$73)+SUMIF($E$16:$F$73,"All team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$H$16:$H$73)/3+SUMIF($E$16:$F$73,"Tuyết,Sáng",$H$16:$H$73)/2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -12718,26 +12715,26 @@
         <v>80</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$G$16:$G$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$G$16:$G$73)/4</f>
-        <v>5.6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Trình",$G$16:$G$73)+SUMIF($E$16:$F$73,"All team",$G$16:$G$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$G$16:$G$73)/3+SUMIF($E$16:$F$73,"An,Trình",$G$16:$G$73)/2</f>
+        <v>26.1</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">SUMIF($E$16:$F$73,"Hoàng",$H$16:$H$73)+SUMIF($E$16:$F$73,"ALL team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Thành,Hoàng",$H$16:$H$73)/2+SUMIF($E$16:$F$73,"Mạnh,Lộc,Phương,Hoàng",$H$16:$H$73)/4</f>
-        <v>6</v>
+        <f ca="1">SUMIF($E$16:$F$73,"Trình",$H$16:$H$73)+SUMIF($E$16:$F$73,"All team",$H$16:$H$73)/5+SUMIF($E$16:$F$73,"Trình,Sáng,Tuyết",$H$16:$H$73)/3+SUMIF($E$16:$F$73,"An,Trình",$H$16:$H$73)/2</f>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="4">
         <f ca="1">SUM(D8:D12)</f>
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="E13" s="4">
         <f ca="1">SUM(E8:E12)</f>
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12747,14 +12744,14 @@
       <c r="B15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="61"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="18" t="s">
         <v>11</v>
       </c>
@@ -12826,18 +12823,18 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="20">
         <v>10</v>
       </c>
@@ -12909,16 +12906,16 @@
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="43" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="20">
         <v>4</v>
       </c>
@@ -12990,16 +12987,16 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="43" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="20">
         <v>6</v>
       </c>
@@ -13071,18 +13068,18 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="42"/>
+      <c r="B19" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="52"/>
-      <c r="E19" s="43" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="20">
         <v>2</v>
       </c>
@@ -13154,16 +13151,16 @@
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="51" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="43" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="20">
         <v>2</v>
       </c>
@@ -13235,16 +13232,16 @@
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="43" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="20">
         <v>2</v>
       </c>
@@ -13316,16 +13313,16 @@
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="20">
         <v>2</v>
       </c>
@@ -13397,16 +13394,16 @@
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="43" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="20">
         <v>2</v>
       </c>
@@ -13478,16 +13475,16 @@
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="51" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="20">
         <v>4</v>
       </c>
@@ -13559,12 +13556,12 @@
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -13591,18 +13588,18 @@
       <c r="AC25" s="20"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="52"/>
-      <c r="E26" s="43" t="s">
+      <c r="D26" s="53"/>
+      <c r="E26" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="20">
         <v>4</v>
       </c>
@@ -13674,16 +13671,16 @@
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="51" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="52"/>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="53"/>
+      <c r="E27" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="20">
         <v>4</v>
       </c>
@@ -13755,16 +13752,16 @@
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="43" t="s">
+      <c r="D28" s="53"/>
+      <c r="E28" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="20">
         <v>4</v>
       </c>
@@ -13836,16 +13833,16 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="43" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="20">
         <v>4</v>
       </c>
@@ -13917,16 +13914,16 @@
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="52"/>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="53"/>
+      <c r="E30" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="20">
         <v>5</v>
       </c>
@@ -13998,12 +13995,12 @@
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
@@ -14030,16 +14027,16 @@
       <c r="AC31" s="20"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="43" t="s">
+      <c r="D32" s="53"/>
+      <c r="E32" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="20">
         <v>4</v>
       </c>
@@ -14111,12 +14108,12 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
@@ -14143,18 +14140,18 @@
       <c r="AC33" s="20"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="52"/>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="53"/>
+      <c r="E34" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="20">
         <v>4</v>
       </c>
@@ -14226,16 +14223,16 @@
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="51" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="52"/>
-      <c r="E35" s="43" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="20">
         <v>4</v>
       </c>
@@ -14307,16 +14304,16 @@
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="51" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="53"/>
+      <c r="E36" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="20">
         <v>4</v>
       </c>
@@ -14388,16 +14385,16 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="51" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="D37" s="52"/>
-      <c r="E37" s="43" t="s">
+      <c r="D37" s="53"/>
+      <c r="E37" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="20">
         <v>4</v>
       </c>
@@ -14469,16 +14466,16 @@
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="51" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="43" t="s">
+      <c r="D38" s="53"/>
+      <c r="E38" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="20">
         <v>4</v>
       </c>
@@ -14550,16 +14547,16 @@
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="51" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="52"/>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="53"/>
+      <c r="E39" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="20">
         <v>6</v>
       </c>
@@ -14631,16 +14628,16 @@
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="51" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="43" t="s">
+      <c r="D40" s="53"/>
+      <c r="E40" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="20">
         <v>4</v>
       </c>
@@ -14712,12 +14709,12 @@
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
@@ -14744,16 +14741,16 @@
       <c r="AC41" s="20"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="51" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="52"/>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="20">
         <v>4</v>
       </c>
@@ -14825,16 +14822,16 @@
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="51" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="52"/>
-      <c r="E43" s="43" t="s">
+      <c r="D43" s="53"/>
+      <c r="E43" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="20">
         <v>4</v>
       </c>
@@ -14906,16 +14903,16 @@
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="51" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="43" t="s">
+      <c r="D44" s="53"/>
+      <c r="E44" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="20">
         <v>4</v>
       </c>
@@ -14987,12 +14984,12 @@
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
@@ -15019,16 +15016,16 @@
       <c r="AC45" s="20"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="51" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="52"/>
-      <c r="E46" s="43" t="s">
+      <c r="D46" s="53"/>
+      <c r="E46" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="20">
         <v>2</v>
       </c>
@@ -15100,18 +15097,18 @@
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="42"/>
+      <c r="B47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="43" t="s">
+      <c r="D47" s="53"/>
+      <c r="E47" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="20">
         <v>4</v>
       </c>
@@ -15183,16 +15180,16 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="51" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="52"/>
-      <c r="E48" s="43" t="s">
+      <c r="D48" s="53"/>
+      <c r="E48" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="20">
         <v>8</v>
       </c>
@@ -15264,16 +15261,16 @@
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="51" t="s">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="44"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="45"/>
       <c r="G49" s="20">
         <v>4</v>
       </c>
@@ -15345,16 +15342,16 @@
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="51" t="s">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="44"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="45"/>
       <c r="G50" s="20">
         <v>8</v>
       </c>
@@ -15426,16 +15423,16 @@
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D51" s="52"/>
-      <c r="E51" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="44"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="53"/>
+      <c r="E51" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="45"/>
       <c r="G51" s="20">
         <v>8</v>
       </c>
@@ -15507,18 +15504,18 @@
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="40" t="s">
+      <c r="A52" s="42"/>
+      <c r="B52" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="52"/>
-      <c r="E52" s="43" t="s">
+      <c r="C52" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="20">
         <v>0</v>
       </c>
@@ -15590,12 +15587,12 @@
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
@@ -15622,16 +15619,16 @@
       <c r="AC53" s="20"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="43" t="s">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="53"/>
+      <c r="E54" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="20">
         <v>0</v>
       </c>
@@ -15701,12 +15698,12 @@
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
@@ -15734,16 +15731,16 @@
       <c r="AC55" s="20"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="52"/>
-      <c r="E56" s="43" t="s">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="20">
         <v>0</v>
       </c>
@@ -15813,12 +15810,12 @@
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="44"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
@@ -15837,7 +15834,7 @@
       <c r="V57" s="20"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
-      <c r="Y57" s="86">
+      <c r="Y57" s="40">
         <v>-2</v>
       </c>
       <c r="Z57" s="20"/>
@@ -15846,16 +15843,16 @@
       <c r="AC57" s="20"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="52"/>
-      <c r="E58" s="43" t="s">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="53"/>
+      <c r="E58" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="20">
         <v>0</v>
       </c>
@@ -15927,12 +15924,12 @@
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
@@ -15960,16 +15957,16 @@
       <c r="AC59" s="20"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="52"/>
-      <c r="E60" s="43" t="s">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" s="53"/>
+      <c r="E60" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="20">
         <v>0</v>
       </c>
@@ -16041,12 +16038,12 @@
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
@@ -16074,18 +16071,18 @@
       <c r="AC61" s="20"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="40" t="s">
+      <c r="A62" s="42"/>
+      <c r="B62" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="52"/>
-      <c r="E62" s="43" t="s">
+      <c r="C62" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="53"/>
+      <c r="E62" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="20">
         <v>0</v>
       </c>
@@ -16157,12 +16154,12 @@
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="44"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
@@ -16190,16 +16187,16 @@
       <c r="AC63" s="20"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="43" t="s">
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="53"/>
+      <c r="E64" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="20">
         <v>0</v>
       </c>
@@ -16271,12 +16268,12 @@
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
@@ -16304,16 +16301,16 @@
       <c r="AC65" s="20"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="F66" s="44"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="53"/>
+      <c r="E66" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="45"/>
       <c r="G66" s="20">
         <v>0</v>
       </c>
@@ -16385,12 +16382,12 @@
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
@@ -16418,16 +16415,16 @@
       <c r="AC67" s="20"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="44"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="53"/>
+      <c r="E68" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" s="45"/>
       <c r="G68" s="20">
         <v>0</v>
       </c>
@@ -16499,12 +16496,12 @@
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="44"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
@@ -16532,16 +16529,16 @@
       <c r="AC69" s="20"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F70" s="44"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="53"/>
+      <c r="E70" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="45"/>
       <c r="G70" s="20">
         <v>0</v>
       </c>
@@ -16613,12 +16610,12 @@
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="44"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
@@ -16646,18 +16643,18 @@
       <c r="AC71" s="20"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A72" s="41"/>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="42"/>
+      <c r="B72" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="52"/>
-      <c r="E72" s="43" t="s">
+      <c r="D72" s="53"/>
+      <c r="E72" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="20">
         <v>5</v>
       </c>
@@ -16729,16 +16726,16 @@
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="51" t="s">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="52"/>
-      <c r="E73" s="43" t="s">
+      <c r="D73" s="53"/>
+      <c r="E73" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="44"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="20">
         <v>5</v>
       </c>
@@ -16810,21 +16807,21 @@
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A74" s="41"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="53" t="s">
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="54"/>
-      <c r="G74" s="43">
+      <c r="F74" s="55"/>
+      <c r="G74" s="44">
         <f>SUM(G16:G73)</f>
         <v>145</v>
       </c>
-      <c r="H74" s="44"/>
+      <c r="H74" s="45"/>
       <c r="I74" s="20">
         <f>SUM(I16:I73)</f>
         <v>176</v>
@@ -16911,19 +16908,19 @@
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A75" s="42"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="53" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="43">
+      <c r="F75" s="55"/>
+      <c r="G75" s="44">
         <f>SUM(H16:H73)</f>
         <v>176</v>
       </c>
-      <c r="H75" s="44"/>
+      <c r="H75" s="45"/>
       <c r="I75" s="20">
         <f>SUM(I16:I73)</f>
         <v>176</v>
@@ -16949,7 +16946,7 @@
         <v>130</v>
       </c>
       <c r="O75" s="20">
-        <f t="shared" ref="O75:X75" si="1">SUM(O16:O73)</f>
+        <f t="shared" ref="O75:V75" si="1">SUM(O16:O73)</f>
         <v>120</v>
       </c>
       <c r="P75" s="20">
@@ -17011,9 +17008,7 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="C59:D59"/>
@@ -17030,10 +17025,6 @@
     <mergeCell ref="E69:F69"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E62:F62"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="C58:D58"/>
@@ -17055,7 +17046,9 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E53:F53"/>
@@ -17077,8 +17070,9 @@
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C70:D70"/>
@@ -17101,6 +17095,8 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="G75:H75"/>
     <mergeCell ref="B52:B61"/>
@@ -17124,6 +17120,7 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="A16:A75"/>
     <mergeCell ref="E64:F64"/>
     <mergeCell ref="A1:B1"/>
@@ -17159,7 +17156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -17169,45 +17166,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="83"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="85"/>
+      <c r="H2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="85"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="84"/>
       <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
@@ -17245,43 +17242,43 @@
       </c>
       <c r="B4" s="27">
         <f ca="1">'Sprint 1'!$D$8</f>
-        <v>5.6</v>
+        <v>27.6</v>
       </c>
       <c r="C4" s="27">
         <f ca="1">'Sprint 1'!$E$8</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D4" s="27">
         <f ca="1">'Sprint 1'!$D$9</f>
-        <v>5.6</v>
+        <v>25.6</v>
       </c>
       <c r="E4" s="27">
         <f ca="1">'Sprint 1'!$E$9</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F4" s="27">
         <f ca="1">'Sprint 1'!$D$10</f>
-        <v>5.6</v>
+        <v>22.6</v>
       </c>
       <c r="G4" s="27">
         <f ca="1">'Sprint 1'!$E$10</f>
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="H4" s="27">
         <f ca="1">'Sprint 1'!$D$11</f>
-        <v>5.6</v>
+        <v>26.6</v>
       </c>
       <c r="I4" s="27">
         <f ca="1">'Sprint 1'!$E$11</f>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J4" s="27">
         <f ca="1">'Sprint 1'!$D$12</f>
-        <v>5.6</v>
+        <v>22.6</v>
       </c>
       <c r="K4" s="27">
         <f ca="1">'Sprint 1'!$E$12</f>
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -17290,43 +17287,43 @@
       </c>
       <c r="B5" s="27">
         <f ca="1">'Sprint 2'!$D$8</f>
-        <v>5.6</v>
+        <v>28.6</v>
       </c>
       <c r="C5" s="27">
         <f ca="1">'Sprint 2'!$E$8</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D5" s="27">
         <f ca="1">'Sprint 2'!$D$9</f>
-        <v>5.6</v>
+        <v>25.6</v>
       </c>
       <c r="E5" s="27">
         <f ca="1">'Sprint 2'!$E$9</f>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F5" s="27">
         <f ca="1">'Sprint 2'!$D$10</f>
-        <v>5.6</v>
+        <v>20.6</v>
       </c>
       <c r="G5" s="27">
         <f ca="1">'Sprint 2'!$E$10</f>
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="H5" s="27">
         <f ca="1">'Sprint 2'!$D$11</f>
-        <v>5.6</v>
+        <v>29.6</v>
       </c>
       <c r="I5" s="27">
         <f ca="1">'Sprint 2'!$E$11</f>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J5" s="27">
         <f ca="1">'Sprint 2'!$D$12</f>
-        <v>5.6</v>
+        <v>20.6</v>
       </c>
       <c r="K5" s="27">
         <f ca="1">'Sprint 2'!$E$12</f>
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
@@ -17335,43 +17332,43 @@
       </c>
       <c r="B6" s="27">
         <f ca="1">'Sprint 3'!$D$8</f>
-        <v>5.6</v>
+        <v>31.6</v>
       </c>
       <c r="C6" s="27">
         <f ca="1">'Sprint 3'!$E$8</f>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D6" s="27">
         <f ca="1">'Sprint 3'!$D$9</f>
-        <v>5.6</v>
+        <v>27.6</v>
       </c>
       <c r="E6" s="27">
         <f ca="1">'Sprint 3'!$E$9</f>
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F6" s="27">
         <f ca="1">'Sprint 3'!$D$10</f>
-        <v>5.6</v>
+        <v>28.1</v>
       </c>
       <c r="G6" s="27">
         <f ca="1">'Sprint 3'!$E$10</f>
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H6" s="27">
         <f ca="1">'Sprint 3'!$D$11</f>
-        <v>5.6</v>
+        <v>31.6</v>
       </c>
       <c r="I6" s="27">
         <f ca="1">'Sprint 3'!$E$11</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J6" s="27">
         <f ca="1">'Sprint 3'!$D$12</f>
-        <v>5.6</v>
+        <v>26.1</v>
       </c>
       <c r="K6" s="27">
         <f ca="1">'Sprint 3'!$E$12</f>
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -17380,51 +17377,51 @@
       </c>
       <c r="B7" s="28">
         <f ca="1">SUM(B4:B6)</f>
-        <v>16.799999999999997</v>
+        <v>87.800000000000011</v>
       </c>
       <c r="C7" s="28">
         <f t="shared" ref="C7:K7" ca="1" si="0">SUM(C4:C6)</f>
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16.799999999999997</v>
+        <v>78.800000000000011</v>
       </c>
       <c r="E7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16.799999999999997</v>
+        <v>71.300000000000011</v>
       </c>
       <c r="G7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="H7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16.799999999999997</v>
+        <v>87.800000000000011</v>
       </c>
       <c r="I7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>16.799999999999997</v>
+        <v>69.300000000000011</v>
       </c>
       <c r="K7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="E11" s="31" t="s">
@@ -17432,7 +17429,7 @@
       </c>
       <c r="F11" s="32">
         <f ca="1">SUMIF($B$3:$K$3,"Thực tế",$B$7:$K$7)</f>
-        <v>83.999999999999986</v>
+        <v>395.00000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.4">
@@ -17441,7 +17438,7 @@
       </c>
       <c r="F12" s="34">
         <f ca="1">SUMIF($B$3:$K$3,"Ước tính",$B$7:$K$7)</f>
-        <v>90</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
